--- a/09-Excell/Zustand 3/W'keitsbaum - Z3.xlsx
+++ b/09-Excell/Zustand 3/W'keitsbaum - Z3.xlsx
@@ -624,134 +624,134 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -798,63 +798,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4520688351.2953234</v>
+            <v>4521254929.1747208</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4522088320.0944185</v>
+            <v>4522654897.9738159</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4522845243.2858286</v>
+            <v>4523411821.165226</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4949777925.9710617</v>
+            <v>4950398285.826932</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4951296258.5749168</v>
+            <v>4951916618.4307871</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4952112942.7433853</v>
+            <v>4952733302.5992546</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5357731535.533144</v>
+            <v>5358403027.6673222</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5359362400.4653139</v>
+            <v>5360033892.5994921</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5360235901.3431072</v>
+            <v>5360907393.4772854</v>
           </cell>
         </row>
       </sheetData>
@@ -881,63 +881,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4254034194.911767</v>
+            <v>4254600772.7911649</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4254053404.8643627</v>
+            <v>4254619982.7437601</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4254063791.1377048</v>
+            <v>4254630369.0171027</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4657700162.5812502</v>
+            <v>4658320522.4371204</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4657720996.6868973</v>
+            <v>4658341356.5427675</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4657732202.9826565</v>
+            <v>4658352562.8385258</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5041483691.4446363</v>
+            <v>5042155183.5788145</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5041506069.6857805</v>
+            <v>5042177561.8199587</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5041518055.6037006</v>
+            <v>5042189547.7378788</v>
           </cell>
         </row>
       </sheetData>
@@ -964,63 +964,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4254017361.3856978</v>
+            <v>4254583939.2650957</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4254033270.7190895</v>
+            <v>4254599848.5984869</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4254041872.441792</v>
+            <v>4254608450.3211899</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4657758868.5888748</v>
+            <v>4658379228.4447451</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4657776123.0161095</v>
+            <v>4658396482.8719797</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4657785403.8663778</v>
+            <v>4658405763.7222471</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5041691225.3202419</v>
+            <v>5042362717.4544201</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5041709758.5721264</v>
+            <v>5042381250.7063046</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5041719685.0911455</v>
+            <v>5042391177.2253237</v>
           </cell>
         </row>
       </sheetData>
@@ -1294,7 +1294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="M10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="AA41" sqref="AA41"/>
     </sheetView>
   </sheetViews>
@@ -1319,89 +1319,89 @@
   <sheetData>
     <row r="1" spans="2:28" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:28" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="52"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="53"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="55"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="41" t="s">
+      <c r="W3" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="41" t="s">
+      <c r="X3" s="49"/>
+      <c r="Y3" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="41" t="s">
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="42"/>
+      <c r="AB3" s="49"/>
     </row>
     <row r="4" spans="2:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="36"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="43"/>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="44"/>
-      <c r="AA4" s="43"/>
-      <c r="AB4" s="44"/>
+      <c r="W4" s="50"/>
+      <c r="X4" s="51"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="50"/>
+      <c r="AB4" s="51"/>
     </row>
     <row r="5" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="39"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="66" t="s">
+      <c r="G5" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="67"/>
-      <c r="I5" s="68"/>
-      <c r="L5" s="65" t="s">
+      <c r="H5" s="59"/>
+      <c r="I5" s="60"/>
+      <c r="L5" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="65"/>
-      <c r="N5" s="65"/>
-      <c r="Q5" s="41" t="s">
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="Q5" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="72"/>
-      <c r="S5" s="72"/>
-      <c r="T5" s="42"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="46"/>
-      <c r="Y5" s="45"/>
-      <c r="Z5" s="46"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="46"/>
+      <c r="R5" s="64"/>
+      <c r="S5" s="64"/>
+      <c r="T5" s="49"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="53"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="53"/>
+      <c r="AA5" s="52"/>
+      <c r="AB5" s="53"/>
     </row>
     <row r="6" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="71"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="Q6" s="45"/>
-      <c r="R6" s="73"/>
-      <c r="S6" s="73"/>
-      <c r="T6" s="46"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="63"/>
+      <c r="L6" s="57"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="57"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="53"/>
     </row>
     <row r="7" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="33"/>
+      <c r="V7" s="56"/>
       <c r="W7" s="25" t="s">
         <v>6</v>
       </c>
@@ -1422,24 +1422,24 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="41"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="33"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="36"/>
-      <c r="AB8" s="37"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="68"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="68"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="68"/>
+      <c r="AB8" s="69"/>
     </row>
     <row r="9" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="61"/>
-      <c r="C9" s="62"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="43"/>
       <c r="D9" s="30" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
@@ -1474,88 +1474,88 @@
       </c>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
-      <c r="V9" s="33"/>
+      <c r="V9" s="56"/>
       <c r="W9" s="27">
         <f>'[1]SB1-SU1'!$AD$56</f>
-        <v>4520688351.2953234</v>
+        <v>4521254929.1747208</v>
       </c>
       <c r="X9" s="27">
         <f>W9*S9</f>
-        <v>203430975.80828956</v>
+        <v>203456471.81286243</v>
       </c>
       <c r="Y9" s="27">
         <f>'[2]SB1-SU1'!$AD$56</f>
-        <v>4254034194.911767</v>
+        <v>4254600772.7911649</v>
       </c>
       <c r="Z9" s="27">
         <f>Y9*S9</f>
-        <v>191431538.7710295</v>
+        <v>191457034.7756024</v>
       </c>
       <c r="AA9" s="27">
         <f>'[3]SB1-SU1'!$AD$56</f>
-        <v>4254017361.3856978</v>
+        <v>4254583939.2650957</v>
       </c>
       <c r="AB9" s="27">
         <f>AA9*S9</f>
-        <v>191430781.2623564</v>
+        <v>191456277.2669293</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-      <c r="K10" s="39"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="39"/>
-      <c r="N10" s="39"/>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="39"/>
-      <c r="S10" s="39"/>
-      <c r="T10" s="39"/>
-      <c r="U10" s="39"/>
-      <c r="V10" s="33"/>
-      <c r="W10" s="38"/>
-      <c r="X10" s="33"/>
-      <c r="Y10" s="38"/>
-      <c r="Z10" s="33"/>
-      <c r="AA10" s="38"/>
-      <c r="AB10" s="33"/>
+      <c r="M10" s="46"/>
+      <c r="N10" s="46"/>
+      <c r="O10" s="46"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="46"/>
+      <c r="R10" s="46"/>
+      <c r="S10" s="46"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="55"/>
+      <c r="X10" s="56"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="56"/>
     </row>
     <row r="11" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="33"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="38"/>
-      <c r="Z11" s="33"/>
-      <c r="AA11" s="38"/>
-      <c r="AB11" s="33"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
+      <c r="Q11" s="47"/>
+      <c r="R11" s="47"/>
+      <c r="S11" s="47"/>
+      <c r="T11" s="47"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="55"/>
+      <c r="X11" s="56"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="55"/>
+      <c r="AB11" s="56"/>
     </row>
     <row r="12" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
-      <c r="K12" s="47"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
       <c r="L12" s="16"/>
       <c r="M12" s="14"/>
       <c r="N12" s="17" t="s">
@@ -1575,86 +1575,86 @@
       </c>
       <c r="T12" s="14"/>
       <c r="U12" s="15"/>
-      <c r="V12" s="33"/>
+      <c r="V12" s="56"/>
       <c r="W12" s="27">
         <f>'[1]SB1-SU2'!$AD$56</f>
-        <v>4522088320.0944185</v>
+        <v>4522654897.9738159</v>
       </c>
       <c r="X12" s="27">
         <f>W12*S12</f>
-        <v>712228910.41487098</v>
+        <v>712318146.43087602</v>
       </c>
       <c r="Y12" s="27">
         <f>'[2]SB1-SU2'!$AD$56</f>
-        <v>4254053404.8643627</v>
+        <v>4254619982.7437601</v>
       </c>
       <c r="Z12" s="27">
         <f>Y12*S12</f>
-        <v>670013411.26613712</v>
+        <v>670102647.28214216</v>
       </c>
       <c r="AA12" s="27">
         <f>'[3]SB1-SU2'!$AD$56</f>
-        <v>4254033270.7190895</v>
+        <v>4254599848.5984869</v>
       </c>
       <c r="AB12" s="27">
         <f>AA12*S12</f>
-        <v>670010240.13825655</v>
+        <v>670099476.15426171</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="47"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="39"/>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="39"/>
-      <c r="S13" s="39"/>
-      <c r="T13" s="39"/>
-      <c r="U13" s="39"/>
-      <c r="V13" s="33"/>
-      <c r="W13" s="38"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="38"/>
-      <c r="Z13" s="33"/>
-      <c r="AA13" s="38"/>
-      <c r="AB13" s="33"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="46"/>
+      <c r="O13" s="46"/>
+      <c r="P13" s="46"/>
+      <c r="Q13" s="46"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="55"/>
+      <c r="X13" s="56"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="55"/>
+      <c r="AB13" s="56"/>
     </row>
     <row r="14" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="47"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="33"/>
-      <c r="W14" s="38"/>
-      <c r="X14" s="33"/>
-      <c r="Y14" s="38"/>
-      <c r="Z14" s="33"/>
-      <c r="AA14" s="38"/>
-      <c r="AB14" s="33"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
+      <c r="Q14" s="47"/>
+      <c r="R14" s="47"/>
+      <c r="S14" s="47"/>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="55"/>
+      <c r="X14" s="56"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="55"/>
+      <c r="AB14" s="56"/>
     </row>
     <row r="15" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
       <c r="L15" s="16"/>
       <c r="M15" s="14"/>
       <c r="N15" s="17" t="s">
@@ -1674,79 +1674,79 @@
       </c>
       <c r="T15" s="14"/>
       <c r="U15" s="15"/>
-      <c r="V15" s="33"/>
+      <c r="V15" s="56"/>
       <c r="W15" s="27">
         <f>'[1]SB1-SU3'!$AD$56</f>
-        <v>4522845243.2858286</v>
+        <v>4523411821.165226</v>
       </c>
       <c r="X15" s="27">
         <f>W15*S15</f>
-        <v>440977411.22036833</v>
+        <v>441032652.56360954</v>
       </c>
       <c r="Y15" s="27">
         <f>'[2]SB1-SU3'!$AD$56</f>
-        <v>4254063791.1377048</v>
+        <v>4254630369.0171027</v>
       </c>
       <c r="Z15" s="27">
         <f>Y15*S15</f>
-        <v>414771219.63592625</v>
+        <v>414826460.97916752</v>
       </c>
       <c r="AA15" s="27">
         <f>'[3]SB1-SU3'!$AD$56</f>
-        <v>4254041872.441792</v>
+        <v>4254608450.3211899</v>
       </c>
       <c r="AB15" s="27">
         <f>AA15*S15</f>
-        <v>414769082.56307471</v>
+        <v>414824323.90631604</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="36"/>
-      <c r="X16" s="37"/>
-      <c r="Y16" s="36"/>
-      <c r="Z16" s="37"/>
-      <c r="AA16" s="36"/>
-      <c r="AB16" s="37"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="54"/>
+      <c r="U16" s="54"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="69"/>
+      <c r="Y16" s="68"/>
+      <c r="Z16" s="69"/>
+      <c r="AA16" s="68"/>
+      <c r="AB16" s="69"/>
     </row>
     <row r="17" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="40"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="38"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="38"/>
-      <c r="Z17" s="33"/>
-      <c r="AA17" s="38"/>
-      <c r="AB17" s="33"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
+      <c r="L17" s="47"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="56"/>
+      <c r="W17" s="55"/>
+      <c r="X17" s="56"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="56"/>
+      <c r="AA17" s="55"/>
+      <c r="AB17" s="56"/>
     </row>
     <row r="18" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="3"/>
@@ -1777,86 +1777,86 @@
       </c>
       <c r="T18" s="12"/>
       <c r="U18" s="12"/>
-      <c r="V18" s="33"/>
+      <c r="V18" s="56"/>
       <c r="W18" s="27">
         <f>'[1]SB2-SU1'!$AD$56</f>
-        <v>4949777925.9710617</v>
+        <v>4950398285.826932</v>
       </c>
       <c r="X18" s="27">
         <f>W18*S18</f>
-        <v>408356678.89261264</v>
+        <v>408407858.58072191</v>
       </c>
       <c r="Y18" s="27">
         <f>'[2]SB2-SU1'!$AD$56</f>
-        <v>4657700162.5812502</v>
+        <v>4658320522.4371204</v>
       </c>
       <c r="Z18" s="27">
         <f>Y18*S18</f>
-        <v>384260263.41295314</v>
+        <v>384311443.10106248</v>
       </c>
       <c r="AA18" s="27">
         <f>'[3]SB2-SU1'!$AD$56</f>
-        <v>4657758868.5888748</v>
+        <v>4658379228.4447451</v>
       </c>
       <c r="AB18" s="27">
         <f>AA18*S18</f>
-        <v>384265106.65858221</v>
+        <v>384316286.34669149</v>
       </c>
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G19" s="3"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="39"/>
-      <c r="S19" s="39"/>
-      <c r="T19" s="39"/>
-      <c r="U19" s="39"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="36"/>
-      <c r="X19" s="37"/>
-      <c r="Y19" s="36"/>
-      <c r="Z19" s="37"/>
-      <c r="AA19" s="36"/>
-      <c r="AB19" s="37"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="46"/>
+      <c r="O19" s="46"/>
+      <c r="P19" s="46"/>
+      <c r="Q19" s="46"/>
+      <c r="R19" s="46"/>
+      <c r="S19" s="46"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="56"/>
+      <c r="W19" s="68"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="68"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="68"/>
+      <c r="AB19" s="69"/>
     </row>
     <row r="20" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="40"/>
-      <c r="N20" s="40"/>
-      <c r="O20" s="40"/>
-      <c r="P20" s="40"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="40"/>
-      <c r="S20" s="40"/>
-      <c r="T20" s="40"/>
-      <c r="U20" s="40"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="33"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="33"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="33"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="56"/>
+      <c r="W20" s="55"/>
+      <c r="X20" s="56"/>
+      <c r="Y20" s="55"/>
+      <c r="Z20" s="56"/>
+      <c r="AA20" s="55"/>
+      <c r="AB20" s="56"/>
     </row>
     <row r="21" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="17" t="s">
@@ -1876,86 +1876,86 @@
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="15"/>
-      <c r="V21" s="33"/>
+      <c r="V21" s="56"/>
       <c r="W21" s="27">
         <f>'[1]SB2-SU2'!$AD$56</f>
-        <v>4951296258.5749168</v>
+        <v>4951916618.4307871</v>
       </c>
       <c r="X21" s="27">
         <f>W21*S21</f>
-        <v>1429686794.6635075</v>
+        <v>1429865923.5718901</v>
       </c>
       <c r="Y21" s="27">
         <f>'[2]SB2-SU2'!$AD$56</f>
-        <v>4657720996.6868973</v>
+        <v>4658341356.5427675</v>
       </c>
       <c r="Z21" s="27">
         <f>Y21*S21</f>
-        <v>1344916937.7933419</v>
+        <v>1345096066.7017245</v>
       </c>
       <c r="AA21" s="27">
         <f>'[3]SB2-SU2'!$AD$56</f>
-        <v>4657776123.0161095</v>
+        <v>4658396482.8719797</v>
       </c>
       <c r="AB21" s="27">
         <f>AA21*S21</f>
-        <v>1344932855.5209019</v>
+        <v>1345111984.4292843</v>
       </c>
     </row>
     <row r="22" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="39"/>
-      <c r="N22" s="39"/>
-      <c r="O22" s="39"/>
-      <c r="P22" s="39"/>
-      <c r="Q22" s="39"/>
-      <c r="R22" s="39"/>
-      <c r="S22" s="39"/>
-      <c r="T22" s="39"/>
-      <c r="U22" s="39"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="36"/>
-      <c r="X22" s="37"/>
-      <c r="Y22" s="36"/>
-      <c r="Z22" s="37"/>
-      <c r="AA22" s="36"/>
-      <c r="AB22" s="37"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="46"/>
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="T22" s="46"/>
+      <c r="U22" s="46"/>
+      <c r="V22" s="56"/>
+      <c r="W22" s="68"/>
+      <c r="X22" s="69"/>
+      <c r="Y22" s="68"/>
+      <c r="Z22" s="69"/>
+      <c r="AA22" s="68"/>
+      <c r="AB22" s="69"/>
     </row>
     <row r="23" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="40"/>
-      <c r="N23" s="40"/>
-      <c r="O23" s="40"/>
-      <c r="P23" s="40"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="40"/>
-      <c r="S23" s="40"/>
-      <c r="T23" s="40"/>
-      <c r="U23" s="40"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="33"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="33"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="55"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="55"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="55"/>
+      <c r="AB23" s="56"/>
     </row>
     <row r="24" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
       <c r="L24" s="16"/>
       <c r="M24" s="13"/>
       <c r="N24" s="17" t="s">
@@ -1975,79 +1975,79 @@
       </c>
       <c r="T24" s="14"/>
       <c r="U24" s="15"/>
-      <c r="V24" s="33"/>
+      <c r="V24" s="56"/>
       <c r="W24" s="27">
         <f>'[1]SB2-SU3'!$AD$56</f>
-        <v>4952112942.7433853</v>
+        <v>4952733302.5992546</v>
       </c>
       <c r="X24" s="27">
         <f>W24*S24</f>
-        <v>885190188.51538026</v>
+        <v>885301077.83961689</v>
       </c>
       <c r="Y24" s="27">
         <f>'[2]SB2-SU3'!$AD$56</f>
-        <v>4657732202.9826565</v>
+        <v>4658352562.8385258</v>
       </c>
       <c r="Z24" s="27">
         <f>Y24*S24</f>
-        <v>832569631.28314996</v>
+        <v>832680520.60738659</v>
       </c>
       <c r="AA24" s="27">
         <f>'[3]SB2-SU3'!$AD$56</f>
-        <v>4657785403.8663778</v>
+        <v>4658405763.7222471</v>
       </c>
       <c r="AB24" s="27">
         <f>AA24*S24</f>
-        <v>832579140.94111514</v>
+        <v>832690030.26535177</v>
       </c>
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G25" s="3"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="36"/>
-      <c r="X25" s="37"/>
-      <c r="Y25" s="36"/>
-      <c r="Z25" s="37"/>
-      <c r="AA25" s="36"/>
-      <c r="AB25" s="37"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="54"/>
+      <c r="J25" s="54"/>
+      <c r="K25" s="54"/>
+      <c r="L25" s="66"/>
+      <c r="M25" s="66"/>
+      <c r="N25" s="66"/>
+      <c r="O25" s="66"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="66"/>
+      <c r="R25" s="66"/>
+      <c r="S25" s="66"/>
+      <c r="T25" s="66"/>
+      <c r="U25" s="66"/>
+      <c r="V25" s="56"/>
+      <c r="W25" s="68"/>
+      <c r="X25" s="69"/>
+      <c r="Y25" s="68"/>
+      <c r="Z25" s="69"/>
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="69"/>
     </row>
     <row r="26" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49"/>
-      <c r="N26" s="49"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="49"/>
-      <c r="T26" s="49"/>
-      <c r="U26" s="49"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="38"/>
-      <c r="X26" s="33"/>
-      <c r="Y26" s="38"/>
-      <c r="Z26" s="33"/>
-      <c r="AA26" s="38"/>
-      <c r="AB26" s="33"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
+      <c r="R26" s="67"/>
+      <c r="S26" s="67"/>
+      <c r="T26" s="67"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="56"/>
+      <c r="W26" s="55"/>
+      <c r="X26" s="56"/>
+      <c r="Y26" s="55"/>
+      <c r="Z26" s="56"/>
+      <c r="AA26" s="55"/>
+      <c r="AB26" s="56"/>
     </row>
     <row r="27" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="16"/>
@@ -2078,71 +2078,71 @@
       </c>
       <c r="T27" s="12"/>
       <c r="U27" s="12"/>
-      <c r="V27" s="33"/>
+      <c r="V27" s="56"/>
       <c r="W27" s="27">
         <f>'[1]SB3-SU1'!$AD$56</f>
-        <v>5357731535.533144</v>
+        <v>5358403027.6673222</v>
       </c>
       <c r="X27" s="27">
         <f>W27*S27</f>
-        <v>120548959.54949574</v>
+        <v>120564068.12251474</v>
       </c>
       <c r="Y27" s="27">
         <f>'[2]SB3-SU1'!$AD$56</f>
-        <v>5041483691.4446363</v>
+        <v>5042155183.5788145</v>
       </c>
       <c r="Z27" s="27">
         <f>Y27*S27</f>
-        <v>113433383.05750431</v>
+        <v>113448491.63052332</v>
       </c>
       <c r="AA27" s="27">
         <f>'[3]SB3-SU1'!$AD$56</f>
-        <v>5041691225.3202419</v>
+        <v>5042362717.4544201</v>
       </c>
       <c r="AB27" s="27">
         <f>AA27*S27</f>
-        <v>113438052.56970544</v>
+        <v>113453161.14272445</v>
       </c>
     </row>
     <row r="28" spans="7:28" x14ac:dyDescent="0.3">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="39"/>
-      <c r="O28" s="39"/>
-      <c r="P28" s="39"/>
-      <c r="Q28" s="39"/>
-      <c r="R28" s="39"/>
-      <c r="S28" s="39"/>
-      <c r="T28" s="39"/>
-      <c r="U28" s="39"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="36"/>
-      <c r="X28" s="37"/>
-      <c r="Y28" s="36"/>
-      <c r="Z28" s="37"/>
-      <c r="AA28" s="36"/>
-      <c r="AB28" s="37"/>
+      <c r="M28" s="46"/>
+      <c r="N28" s="46"/>
+      <c r="O28" s="46"/>
+      <c r="P28" s="46"/>
+      <c r="Q28" s="46"/>
+      <c r="R28" s="46"/>
+      <c r="S28" s="46"/>
+      <c r="T28" s="46"/>
+      <c r="U28" s="46"/>
+      <c r="V28" s="56"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="69"/>
+      <c r="Y28" s="68"/>
+      <c r="Z28" s="69"/>
+      <c r="AA28" s="68"/>
+      <c r="AB28" s="69"/>
     </row>
     <row r="29" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="40"/>
-      <c r="N29" s="40"/>
-      <c r="O29" s="40"/>
-      <c r="P29" s="40"/>
-      <c r="Q29" s="40"/>
-      <c r="R29" s="40"/>
-      <c r="S29" s="40"/>
-      <c r="T29" s="40"/>
-      <c r="U29" s="40"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="33"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="33"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="56"/>
     </row>
     <row r="30" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="16"/>
@@ -2164,69 +2164,69 @@
       </c>
       <c r="T30" s="14"/>
       <c r="U30" s="15"/>
-      <c r="V30" s="33"/>
+      <c r="V30" s="56"/>
       <c r="W30" s="27">
         <f>'[1]SB3-SU2'!$AD$56</f>
-        <v>5359362400.4653139</v>
+        <v>5360033892.5994921</v>
       </c>
       <c r="X30" s="27">
         <f>W30*S30</f>
-        <v>422049789.03664345</v>
+        <v>422102669.04220998</v>
       </c>
       <c r="Y30" s="27">
         <f>'[2]SB3-SU2'!$AD$56</f>
-        <v>5041506069.6857805</v>
+        <v>5042177561.8199587</v>
       </c>
       <c r="Z30" s="27">
         <f>Y30*S30</f>
-        <v>397018602.98775524</v>
+        <v>397071482.99332178</v>
       </c>
       <c r="AA30" s="27">
         <f>'[3]SB3-SU2'!$AD$56</f>
-        <v>5041709758.5721264</v>
+        <v>5042381250.7063046</v>
       </c>
       <c r="AB30" s="27">
         <f>AA30*S30</f>
-        <v>397034643.48755497</v>
+        <v>397087523.4931215</v>
       </c>
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.3">
       <c r="L31" s="3"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
-      <c r="R31" s="39"/>
-      <c r="S31" s="39"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="36"/>
-      <c r="X31" s="37"/>
-      <c r="Y31" s="36"/>
-      <c r="Z31" s="37"/>
-      <c r="AA31" s="36"/>
-      <c r="AB31" s="37"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
+      <c r="T31" s="46"/>
+      <c r="U31" s="46"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="68"/>
+      <c r="X31" s="69"/>
+      <c r="Y31" s="68"/>
+      <c r="Z31" s="69"/>
+      <c r="AA31" s="68"/>
+      <c r="AB31" s="69"/>
     </row>
     <row r="32" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="40"/>
-      <c r="N32" s="40"/>
-      <c r="O32" s="40"/>
-      <c r="P32" s="40"/>
-      <c r="Q32" s="40"/>
-      <c r="R32" s="40"/>
-      <c r="S32" s="40"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="40"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="38"/>
-      <c r="X32" s="33"/>
-      <c r="Y32" s="38"/>
-      <c r="Z32" s="33"/>
-      <c r="AA32" s="38"/>
-      <c r="AB32" s="33"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="56"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="56"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="56"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="56"/>
     </row>
     <row r="33" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L33" s="16"/>
@@ -2248,38 +2248,38 @@
       </c>
       <c r="T33" s="14"/>
       <c r="U33" s="15"/>
-      <c r="V33" s="33"/>
+      <c r="V33" s="56"/>
       <c r="W33" s="27">
         <f>'[1]SB3-SU3'!$AD$56</f>
-        <v>5360235901.3431072</v>
+        <v>5360907393.4772854</v>
       </c>
       <c r="X33" s="27">
         <f>W33*S33</f>
-        <v>261311500.19047648</v>
+        <v>261344235.43201768</v>
       </c>
       <c r="Y33" s="27">
         <f>'[2]SB3-SU3'!$AD$56</f>
-        <v>5041518055.6037006</v>
+        <v>5042189547.7378788</v>
       </c>
       <c r="Z33" s="27">
         <f>Y33*S33</f>
-        <v>245774005.21068043</v>
+        <v>245806740.4522216</v>
       </c>
       <c r="AA33" s="27">
         <f>'[3]SB3-SU3'!$AD$56</f>
-        <v>5041719685.0911455</v>
+        <v>5042391177.2253237</v>
       </c>
       <c r="AB33" s="27">
         <f>AA33*S33</f>
-        <v>245783834.64819336</v>
+        <v>245816569.88973454</v>
       </c>
     </row>
     <row r="34" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="34"/>
+      <c r="W34" s="72"/>
       <c r="X34" s="29"/>
-      <c r="Y34" s="34"/>
+      <c r="Y34" s="72"/>
       <c r="Z34" s="29"/>
-      <c r="AA34" s="34"/>
+      <c r="AA34" s="72"/>
       <c r="AB34" s="29"/>
       <c r="AC34" s="2"/>
     </row>
@@ -2288,24 +2288,24 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="31" t="s">
+      <c r="U35" s="70" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="32"/>
-      <c r="W35" s="35"/>
+      <c r="V35" s="71"/>
+      <c r="W35" s="73"/>
       <c r="X35" s="28">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
-        <v>4883781208.2916451</v>
-      </c>
-      <c r="Y35" s="35"/>
+        <v>4884393103.3963184</v>
+      </c>
+      <c r="Y35" s="73"/>
       <c r="Z35" s="28">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
-        <v>4594188993.4184771</v>
-      </c>
-      <c r="AA35" s="35"/>
+        <v>4594800888.5231524</v>
+      </c>
+      <c r="AA35" s="73"/>
       <c r="AB35" s="28">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
-        <v>4594243737.7897406</v>
+        <v>4594855632.8944149</v>
       </c>
       <c r="AC35" s="2"/>
     </row>
@@ -2585,6 +2585,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="V7:V33"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="W28:X29"/>
+    <mergeCell ref="Y28:Z29"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
     <mergeCell ref="B2:D5"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="M31:U32"/>
@@ -2601,40 +2635,6 @@
     <mergeCell ref="L5:N6"/>
     <mergeCell ref="G5:I6"/>
     <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="V7:V33"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="W28:X29"/>
-    <mergeCell ref="Y28:Z29"/>
-    <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Z32"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Z26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/09-Excell/Zustand 3/W'keitsbaum - Z3.xlsx
+++ b/09-Excell/Zustand 3/W'keitsbaum - Z3.xlsx
@@ -19,7 +19,7 @@
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -562,7 +562,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -580,9 +580,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
@@ -591,9 +588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,50 +618,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,61 +669,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -798,63 +801,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4521254929.1747208</v>
+            <v>662833852.5568192</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4522654897.9738159</v>
+            <v>663042463.01576078</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4523411821.165226</v>
+            <v>663155252.73967469</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4950398285.826932</v>
+            <v>725720495.40372837</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4951916618.4307871</v>
+            <v>725946743.34724951</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4952733302.5992546</v>
+            <v>726068438.10183001</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5358403027.6673222</v>
+            <v>785511219.86399519</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5360033892.5994921</v>
+            <v>785754236.3393687</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5360907393.4772854</v>
+            <v>785884397.39704406</v>
           </cell>
         </row>
       </sheetData>
@@ -881,63 +884,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4254600772.7911649</v>
+            <v>628600013.38911366</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4254619982.7437601</v>
+            <v>628612009.1318388</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4254630369.0171027</v>
+            <v>628618494.88771379</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4658320522.4371204</v>
+            <v>688120935.25859237</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4658341356.5427675</v>
+            <v>688133945.21109319</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4658352562.8385258</v>
+            <v>688140943.0337038</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5042155183.5788145</v>
+            <v>744712305.7583431</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5042177561.8199587</v>
+            <v>744726279.95327508</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5042189547.7378788</v>
+            <v>744733764.61448884</v>
           </cell>
         </row>
       </sheetData>
@@ -964,63 +967,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>4254583939.2650957</v>
+            <v>864995108.18066382</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>4254599848.5984869</v>
+            <v>865004007.62837636</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>4254608450.3211899</v>
+            <v>865008819.30587018</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>4658379228.4447451</v>
+            <v>946980704.74403632</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>4658396482.8719797</v>
+            <v>946990356.61749947</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>4658405763.7222471</v>
+            <v>946995548.18898273</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>5042362717.4544201</v>
+            <v>1024973319.4286743</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>5042381250.7063046</v>
+            <v>1024983686.6578678</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>5042391177.2253237</v>
+            <v>1024989239.4069713</v>
           </cell>
         </row>
       </sheetData>
@@ -1294,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="AA41" sqref="AA41"/>
+    <sheetView tabSelected="1" topLeftCell="N9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="L16" sqref="L16:U17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1319,968 +1322,968 @@
   <sheetData>
     <row r="1" spans="2:28" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:28" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="33"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="53"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="48" t="s">
+      <c r="W3" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="48" t="s">
+      <c r="X3" s="40"/>
+      <c r="Y3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="48" t="s">
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="49"/>
+      <c r="AB3" s="40"/>
     </row>
     <row r="4" spans="2:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="50"/>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="50"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="50"/>
-      <c r="AB4" s="51"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="42"/>
     </row>
     <row r="5" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="37"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="39"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="59"/>
-      <c r="I5" s="60"/>
-      <c r="L5" s="57" t="s">
+      <c r="H5" s="65"/>
+      <c r="I5" s="66"/>
+      <c r="L5" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="Q5" s="48" t="s">
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="Q5" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="64"/>
-      <c r="S5" s="64"/>
-      <c r="T5" s="49"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="53"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="53"/>
-      <c r="AA5" s="52"/>
-      <c r="AB5" s="53"/>
+      <c r="R5" s="70"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="40"/>
+      <c r="W5" s="43"/>
+      <c r="X5" s="44"/>
+      <c r="Y5" s="43"/>
+      <c r="Z5" s="44"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="44"/>
     </row>
     <row r="6" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="62"/>
-      <c r="I6" s="63"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="53"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="69"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="44"/>
     </row>
     <row r="7" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="56"/>
-      <c r="W7" s="25" t="s">
+      <c r="V7" s="31"/>
+      <c r="W7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="X7" s="26" t="s">
+      <c r="X7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="Y7" s="25" t="s">
+      <c r="Y7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="Z7" s="26" t="s">
+      <c r="Z7" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="AA7" s="25" t="s">
+      <c r="AA7" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="AB7" s="26" t="s">
+      <c r="AB7" s="24" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="41"/>
+      <c r="C8" s="58"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="68"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="68"/>
-      <c r="Z8" s="69"/>
-      <c r="AA8" s="68"/>
-      <c r="AB8" s="69"/>
+      <c r="V8" s="31"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="35"/>
     </row>
     <row r="9" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="30" t="str">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="28" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
       <c r="I9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="11">
-        <v>0.3</v>
-      </c>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="17" t="s">
+      <c r="J9" s="72">
+        <v>0.125</v>
+      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="O9" s="18">
         <v>0.15</v>
       </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="21" t="s">
+      <c r="P9" s="14"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="S9" s="22">
+      <c r="S9" s="20">
         <f>J9*O9</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="T9" s="12"/>
-      <c r="U9" s="12"/>
-      <c r="V9" s="56"/>
-      <c r="W9" s="27">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="T9" s="11"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="25">
         <f>'[1]SB1-SU1'!$AD$56</f>
-        <v>4521254929.1747208</v>
-      </c>
-      <c r="X9" s="27">
+        <v>662833852.5568192</v>
+      </c>
+      <c r="X9" s="25">
         <f>W9*S9</f>
-        <v>203456471.81286243</v>
-      </c>
-      <c r="Y9" s="27">
+        <v>12428134.73544036</v>
+      </c>
+      <c r="Y9" s="25">
         <f>'[2]SB1-SU1'!$AD$56</f>
-        <v>4254600772.7911649</v>
-      </c>
-      <c r="Z9" s="27">
+        <v>628600013.38911366</v>
+      </c>
+      <c r="Z9" s="25">
         <f>Y9*S9</f>
-        <v>191457034.7756024</v>
-      </c>
-      <c r="AA9" s="27">
+        <v>11786250.251045881</v>
+      </c>
+      <c r="AA9" s="25">
         <f>'[3]SB1-SU1'!$AD$56</f>
-        <v>4254583939.2650957</v>
-      </c>
-      <c r="AB9" s="27">
+        <v>864995108.18066382</v>
+      </c>
+      <c r="AB9" s="25">
         <f>AA9*S9</f>
-        <v>191456277.2669293</v>
+        <v>16218658.278387446</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="46"/>
-      <c r="I10" s="46"/>
-      <c r="J10" s="46"/>
-      <c r="K10" s="46"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="46"/>
-      <c r="O10" s="46"/>
-      <c r="P10" s="46"/>
-      <c r="Q10" s="46"/>
-      <c r="R10" s="46"/>
-      <c r="S10" s="46"/>
-      <c r="T10" s="46"/>
-      <c r="U10" s="46"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="55"/>
-      <c r="X10" s="56"/>
-      <c r="Y10" s="55"/>
-      <c r="Z10" s="56"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="56"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="36"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="36"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="36"/>
+      <c r="AB10" s="31"/>
     </row>
     <row r="11" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="45"/>
+      <c r="J11" s="45"/>
+      <c r="K11" s="45"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="47"/>
-      <c r="T11" s="47"/>
-      <c r="U11" s="47"/>
-      <c r="V11" s="56"/>
-      <c r="W11" s="55"/>
-      <c r="X11" s="56"/>
-      <c r="Y11" s="55"/>
-      <c r="Z11" s="56"/>
-      <c r="AA11" s="55"/>
-      <c r="AB11" s="56"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="38"/>
+      <c r="P11" s="38"/>
+      <c r="Q11" s="38"/>
+      <c r="R11" s="38"/>
+      <c r="S11" s="38"/>
+      <c r="T11" s="38"/>
+      <c r="U11" s="38"/>
+      <c r="V11" s="31"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="31"/>
     </row>
     <row r="12" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="17" t="s">
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="20">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-      <c r="R12" s="23" t="s">
+      <c r="O12" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="S12" s="24">
+      <c r="S12" s="22">
         <f>J9*O12</f>
-        <v>0.1575</v>
-      </c>
-      <c r="T12" s="14"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="56"/>
-      <c r="W12" s="27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T12" s="13"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="25">
         <f>'[1]SB1-SU2'!$AD$56</f>
-        <v>4522654897.9738159</v>
-      </c>
-      <c r="X12" s="27">
+        <v>663042463.01576078</v>
+      </c>
+      <c r="X12" s="25">
         <f>W12*S12</f>
-        <v>712318146.43087602</v>
-      </c>
-      <c r="Y12" s="27">
+        <v>16576061.575394019</v>
+      </c>
+      <c r="Y12" s="25">
         <f>'[2]SB1-SU2'!$AD$56</f>
-        <v>4254619982.7437601</v>
-      </c>
-      <c r="Z12" s="27">
+        <v>628612009.1318388</v>
+      </c>
+      <c r="Z12" s="25">
         <f>Y12*S12</f>
-        <v>670102647.28214216</v>
-      </c>
-      <c r="AA12" s="27">
+        <v>15715300.228295971</v>
+      </c>
+      <c r="AA12" s="25">
         <f>'[3]SB1-SU2'!$AD$56</f>
-        <v>4254599848.5984869</v>
-      </c>
-      <c r="AB12" s="27">
+        <v>865004007.62837636</v>
+      </c>
+      <c r="AB12" s="25">
         <f>AA12*S12</f>
-        <v>670099476.15426171</v>
+        <v>21625100.190709412</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="45"/>
+      <c r="J13" s="45"/>
+      <c r="K13" s="45"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="46"/>
-      <c r="N13" s="46"/>
-      <c r="O13" s="46"/>
-      <c r="P13" s="46"/>
-      <c r="Q13" s="46"/>
-      <c r="R13" s="46"/>
-      <c r="S13" s="46"/>
-      <c r="T13" s="46"/>
-      <c r="U13" s="46"/>
-      <c r="V13" s="56"/>
-      <c r="W13" s="55"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="55"/>
-      <c r="Z13" s="56"/>
-      <c r="AA13" s="55"/>
-      <c r="AB13" s="56"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="37"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="37"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="37"/>
+      <c r="V13" s="31"/>
+      <c r="W13" s="36"/>
+      <c r="X13" s="31"/>
+      <c r="Y13" s="36"/>
+      <c r="Z13" s="31"/>
+      <c r="AA13" s="36"/>
+      <c r="AB13" s="31"/>
     </row>
     <row r="14" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="45"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="47"/>
-      <c r="N14" s="47"/>
-      <c r="O14" s="47"/>
-      <c r="P14" s="47"/>
-      <c r="Q14" s="47"/>
-      <c r="R14" s="47"/>
-      <c r="S14" s="47"/>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="55"/>
-      <c r="X14" s="56"/>
-      <c r="Y14" s="55"/>
-      <c r="Z14" s="56"/>
-      <c r="AA14" s="55"/>
-      <c r="AB14" s="56"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
+      <c r="O14" s="38"/>
+      <c r="P14" s="38"/>
+      <c r="Q14" s="38"/>
+      <c r="R14" s="38"/>
+      <c r="S14" s="38"/>
+      <c r="T14" s="38"/>
+      <c r="U14" s="38"/>
+      <c r="V14" s="31"/>
+      <c r="W14" s="36"/>
+      <c r="X14" s="31"/>
+      <c r="Y14" s="36"/>
+      <c r="Z14" s="31"/>
+      <c r="AA14" s="36"/>
+      <c r="AB14" s="31"/>
     </row>
     <row r="15" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="17" t="s">
+      <c r="H15" s="45"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="45"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O15" s="20">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="23" t="s">
+      <c r="O15" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="S15" s="24">
+      <c r="S15" s="22">
         <f>J9*O15</f>
-        <v>9.7500000000000003E-2</v>
-      </c>
-      <c r="T15" s="14"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="27">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="T15" s="13"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="31"/>
+      <c r="W15" s="25">
         <f>'[1]SB1-SU3'!$AD$56</f>
-        <v>4523411821.165226</v>
-      </c>
-      <c r="X15" s="27">
+        <v>663155252.73967469</v>
+      </c>
+      <c r="X15" s="25">
         <f>W15*S15</f>
-        <v>441032652.56360954</v>
-      </c>
-      <c r="Y15" s="27">
+        <v>53881364.285098568</v>
+      </c>
+      <c r="Y15" s="25">
         <f>'[2]SB1-SU3'!$AD$56</f>
-        <v>4254630369.0171027</v>
-      </c>
-      <c r="Z15" s="27">
+        <v>628618494.88771379</v>
+      </c>
+      <c r="Z15" s="25">
         <f>Y15*S15</f>
-        <v>414826460.97916752</v>
-      </c>
-      <c r="AA15" s="27">
+        <v>51075252.709626749</v>
+      </c>
+      <c r="AA15" s="25">
         <f>'[3]SB1-SU3'!$AD$56</f>
-        <v>4254608450.3211899</v>
-      </c>
-      <c r="AB15" s="27">
+        <v>865008819.30587018</v>
+      </c>
+      <c r="AB15" s="25">
         <f>AA15*S15</f>
-        <v>414824323.90631604</v>
+        <v>70281966.568601951</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
-      <c r="S16" s="54"/>
-      <c r="T16" s="54"/>
-      <c r="U16" s="54"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="69"/>
-      <c r="Y16" s="68"/>
-      <c r="Z16" s="69"/>
-      <c r="AA16" s="68"/>
-      <c r="AB16" s="69"/>
+      <c r="H16" s="45"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="45"/>
+      <c r="L16" s="45"/>
+      <c r="M16" s="45"/>
+      <c r="N16" s="45"/>
+      <c r="O16" s="45"/>
+      <c r="P16" s="45"/>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
+      <c r="U16" s="45"/>
+      <c r="V16" s="31"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="35"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="35"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="35"/>
     </row>
     <row r="17" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
-      <c r="L17" s="47"/>
-      <c r="M17" s="47"/>
-      <c r="N17" s="47"/>
-      <c r="O17" s="47"/>
-      <c r="P17" s="47"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="56"/>
-      <c r="W17" s="55"/>
-      <c r="X17" s="56"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="56"/>
-      <c r="AA17" s="55"/>
-      <c r="AB17" s="56"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="38"/>
+      <c r="S17" s="38"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="31"/>
+      <c r="W17" s="36"/>
+      <c r="X17" s="31"/>
+      <c r="Y17" s="36"/>
+      <c r="Z17" s="31"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="31"/>
     </row>
     <row r="18" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="3"/>
-      <c r="H18" s="12"/>
+      <c r="H18" s="11"/>
       <c r="I18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="11">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="17" t="s">
+      <c r="J18" s="72">
+        <v>0.125</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="O18" s="18">
         <v>0.15</v>
       </c>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="21" t="s">
+      <c r="P18" s="14"/>
+      <c r="Q18" s="11"/>
+      <c r="R18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="S18" s="22">
+      <c r="S18" s="20">
         <f>J18*O18</f>
-        <v>8.2500000000000004E-2</v>
-      </c>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="27">
+        <v>1.8749999999999999E-2</v>
+      </c>
+      <c r="T18" s="11"/>
+      <c r="U18" s="11"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="25">
         <f>'[1]SB2-SU1'!$AD$56</f>
-        <v>4950398285.826932</v>
-      </c>
-      <c r="X18" s="27">
+        <v>725720495.40372837</v>
+      </c>
+      <c r="X18" s="25">
         <f>W18*S18</f>
-        <v>408407858.58072191</v>
-      </c>
-      <c r="Y18" s="27">
+        <v>13607259.288819907</v>
+      </c>
+      <c r="Y18" s="25">
         <f>'[2]SB2-SU1'!$AD$56</f>
-        <v>4658320522.4371204</v>
-      </c>
-      <c r="Z18" s="27">
+        <v>688120935.25859237</v>
+      </c>
+      <c r="Z18" s="25">
         <f>Y18*S18</f>
-        <v>384311443.10106248</v>
-      </c>
-      <c r="AA18" s="27">
+        <v>12902267.536098607</v>
+      </c>
+      <c r="AA18" s="25">
         <f>'[3]SB2-SU1'!$AD$56</f>
-        <v>4658379228.4447451</v>
-      </c>
-      <c r="AB18" s="27">
+        <v>946980704.74403632</v>
+      </c>
+      <c r="AB18" s="25">
         <f>AA18*S18</f>
-        <v>384316286.34669149</v>
+        <v>17755888.213950679</v>
       </c>
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G19" s="3"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="46"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="46"/>
-      <c r="N19" s="46"/>
-      <c r="O19" s="46"/>
-      <c r="P19" s="46"/>
-      <c r="Q19" s="46"/>
-      <c r="R19" s="46"/>
-      <c r="S19" s="46"/>
-      <c r="T19" s="46"/>
-      <c r="U19" s="46"/>
-      <c r="V19" s="56"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="69"/>
-      <c r="Y19" s="68"/>
-      <c r="Z19" s="69"/>
-      <c r="AA19" s="68"/>
-      <c r="AB19" s="69"/>
+      <c r="M19" s="37"/>
+      <c r="N19" s="37"/>
+      <c r="O19" s="37"/>
+      <c r="P19" s="37"/>
+      <c r="Q19" s="37"/>
+      <c r="R19" s="37"/>
+      <c r="S19" s="37"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="37"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="35"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="35"/>
     </row>
     <row r="20" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="56"/>
-      <c r="W20" s="55"/>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="55"/>
-      <c r="Z20" s="56"/>
-      <c r="AA20" s="55"/>
-      <c r="AB20" s="56"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="38"/>
+      <c r="R20" s="38"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="31"/>
+      <c r="W20" s="36"/>
+      <c r="X20" s="31"/>
+      <c r="Y20" s="36"/>
+      <c r="Z20" s="31"/>
+      <c r="AA20" s="36"/>
+      <c r="AB20" s="31"/>
     </row>
     <row r="21" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="17" t="s">
+      <c r="H21" s="45"/>
+      <c r="I21" s="45"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O21" s="20">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
-      <c r="R21" s="23" t="s">
+      <c r="O21" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
+      <c r="R21" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="22">
         <f>J18*O21</f>
-        <v>0.28875000000000006</v>
-      </c>
-      <c r="T21" s="14"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="56"/>
-      <c r="W21" s="27">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T21" s="13"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="31"/>
+      <c r="W21" s="25">
         <f>'[1]SB2-SU2'!$AD$56</f>
-        <v>4951916618.4307871</v>
-      </c>
-      <c r="X21" s="27">
+        <v>725946743.34724951</v>
+      </c>
+      <c r="X21" s="25">
         <f>W21*S21</f>
-        <v>1429865923.5718901</v>
-      </c>
-      <c r="Y21" s="27">
+        <v>18148668.583681237</v>
+      </c>
+      <c r="Y21" s="25">
         <f>'[2]SB2-SU2'!$AD$56</f>
-        <v>4658341356.5427675</v>
-      </c>
-      <c r="Z21" s="27">
+        <v>688133945.21109319</v>
+      </c>
+      <c r="Z21" s="25">
         <f>Y21*S21</f>
-        <v>1345096066.7017245</v>
-      </c>
-      <c r="AA21" s="27">
+        <v>17203348.630277332</v>
+      </c>
+      <c r="AA21" s="25">
         <f>'[3]SB2-SU2'!$AD$56</f>
-        <v>4658396482.8719797</v>
-      </c>
-      <c r="AB21" s="27">
+        <v>946990356.61749947</v>
+      </c>
+      <c r="AB21" s="25">
         <f>AA21*S21</f>
-        <v>1345111984.4292843</v>
+        <v>23674758.91543749</v>
       </c>
     </row>
     <row r="22" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
+      <c r="H22" s="45"/>
+      <c r="I22" s="45"/>
+      <c r="J22" s="45"/>
+      <c r="K22" s="45"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="46"/>
-      <c r="N22" s="46"/>
-      <c r="O22" s="46"/>
-      <c r="P22" s="46"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="46"/>
-      <c r="S22" s="46"/>
-      <c r="T22" s="46"/>
-      <c r="U22" s="46"/>
-      <c r="V22" s="56"/>
-      <c r="W22" s="68"/>
-      <c r="X22" s="69"/>
-      <c r="Y22" s="68"/>
-      <c r="Z22" s="69"/>
-      <c r="AA22" s="68"/>
-      <c r="AB22" s="69"/>
+      <c r="M22" s="37"/>
+      <c r="N22" s="37"/>
+      <c r="O22" s="37"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
+      <c r="R22" s="37"/>
+      <c r="S22" s="37"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="37"/>
+      <c r="V22" s="31"/>
+      <c r="W22" s="34"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="34"/>
+      <c r="Z22" s="35"/>
+      <c r="AA22" s="34"/>
+      <c r="AB22" s="35"/>
     </row>
     <row r="23" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="54"/>
-      <c r="I23" s="54"/>
-      <c r="J23" s="54"/>
-      <c r="K23" s="54"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="45"/>
+      <c r="K23" s="45"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="55"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="55"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="55"/>
-      <c r="AB23" s="56"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="38"/>
+      <c r="R23" s="38"/>
+      <c r="S23" s="38"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="38"/>
+      <c r="V23" s="31"/>
+      <c r="W23" s="36"/>
+      <c r="X23" s="31"/>
+      <c r="Y23" s="36"/>
+      <c r="Z23" s="31"/>
+      <c r="AA23" s="36"/>
+      <c r="AB23" s="31"/>
     </row>
     <row r="24" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="13"/>
-      <c r="N24" s="17" t="s">
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="45"/>
+      <c r="K24" s="45"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O24" s="20">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-      <c r="R24" s="23" t="s">
+      <c r="O24" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+      <c r="R24" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="S24" s="24">
+      <c r="S24" s="22">
         <f>J18*O24</f>
-        <v>0.17875000000000002</v>
-      </c>
-      <c r="T24" s="14"/>
-      <c r="U24" s="15"/>
-      <c r="V24" s="56"/>
-      <c r="W24" s="27">
+        <v>8.1250000000000003E-2</v>
+      </c>
+      <c r="T24" s="13"/>
+      <c r="U24" s="14"/>
+      <c r="V24" s="31"/>
+      <c r="W24" s="25">
         <f>'[1]SB2-SU3'!$AD$56</f>
-        <v>4952733302.5992546</v>
-      </c>
-      <c r="X24" s="27">
+        <v>726068438.10183001</v>
+      </c>
+      <c r="X24" s="25">
         <f>W24*S24</f>
-        <v>885301077.83961689</v>
-      </c>
-      <c r="Y24" s="27">
+        <v>58993060.595773689</v>
+      </c>
+      <c r="Y24" s="25">
         <f>'[2]SB2-SU3'!$AD$56</f>
-        <v>4658352562.8385258</v>
-      </c>
-      <c r="Z24" s="27">
+        <v>688140943.0337038</v>
+      </c>
+      <c r="Z24" s="25">
         <f>Y24*S24</f>
-        <v>832680520.60738659</v>
-      </c>
-      <c r="AA24" s="27">
+        <v>55911451.621488437</v>
+      </c>
+      <c r="AA24" s="25">
         <f>'[3]SB2-SU3'!$AD$56</f>
-        <v>4658405763.7222471</v>
-      </c>
-      <c r="AB24" s="27">
+        <v>946995548.18898273</v>
+      </c>
+      <c r="AB24" s="25">
         <f>AA24*S24</f>
-        <v>832690030.26535177</v>
+        <v>76943388.290354848</v>
       </c>
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G25" s="3"/>
-      <c r="H25" s="54"/>
-      <c r="I25" s="54"/>
-      <c r="J25" s="54"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="66"/>
-      <c r="R25" s="66"/>
-      <c r="S25" s="66"/>
-      <c r="T25" s="66"/>
-      <c r="U25" s="66"/>
-      <c r="V25" s="56"/>
-      <c r="W25" s="68"/>
-      <c r="X25" s="69"/>
-      <c r="Y25" s="68"/>
-      <c r="Z25" s="69"/>
-      <c r="AA25" s="68"/>
-      <c r="AB25" s="69"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="45"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="46"/>
+      <c r="M25" s="46"/>
+      <c r="N25" s="46"/>
+      <c r="O25" s="46"/>
+      <c r="P25" s="46"/>
+      <c r="Q25" s="46"/>
+      <c r="R25" s="46"/>
+      <c r="S25" s="46"/>
+      <c r="T25" s="46"/>
+      <c r="U25" s="46"/>
+      <c r="V25" s="31"/>
+      <c r="W25" s="34"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="34"/>
+      <c r="Z25" s="35"/>
+      <c r="AA25" s="34"/>
+      <c r="AB25" s="35"/>
     </row>
     <row r="26" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
-      <c r="R26" s="67"/>
-      <c r="S26" s="67"/>
-      <c r="T26" s="67"/>
-      <c r="U26" s="67"/>
-      <c r="V26" s="56"/>
-      <c r="W26" s="55"/>
-      <c r="X26" s="56"/>
-      <c r="Y26" s="55"/>
-      <c r="Z26" s="56"/>
-      <c r="AA26" s="55"/>
-      <c r="AB26" s="56"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="31"/>
+      <c r="W26" s="36"/>
+      <c r="X26" s="31"/>
+      <c r="Y26" s="36"/>
+      <c r="Z26" s="31"/>
+      <c r="AA26" s="36"/>
+      <c r="AB26" s="31"/>
     </row>
     <row r="27" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="16"/>
-      <c r="H27" s="14"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="11">
-        <v>0.15</v>
-      </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="17" t="s">
+      <c r="J27" s="72">
+        <v>0.75</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="12"/>
+      <c r="N27" s="16" t="s">
         <v>11</v>
       </c>
       <c r="O27" s="18">
         <v>0.15</v>
       </c>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="21" t="s">
+      <c r="P27" s="14"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="S27" s="22">
+      <c r="S27" s="20">
         <f>J27*O27</f>
-        <v>2.2499999999999999E-2</v>
-      </c>
-      <c r="T27" s="12"/>
-      <c r="U27" s="12"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="27">
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="T27" s="11"/>
+      <c r="U27" s="11"/>
+      <c r="V27" s="31"/>
+      <c r="W27" s="25">
         <f>'[1]SB3-SU1'!$AD$56</f>
-        <v>5358403027.6673222</v>
-      </c>
-      <c r="X27" s="27">
+        <v>785511219.86399519</v>
+      </c>
+      <c r="X27" s="25">
         <f>W27*S27</f>
-        <v>120564068.12251474</v>
-      </c>
-      <c r="Y27" s="27">
+        <v>88370012.234699458</v>
+      </c>
+      <c r="Y27" s="25">
         <f>'[2]SB3-SU1'!$AD$56</f>
-        <v>5042155183.5788145</v>
-      </c>
-      <c r="Z27" s="27">
+        <v>744712305.7583431</v>
+      </c>
+      <c r="Z27" s="25">
         <f>Y27*S27</f>
-        <v>113448491.63052332</v>
-      </c>
-      <c r="AA27" s="27">
+        <v>83780134.397813588</v>
+      </c>
+      <c r="AA27" s="25">
         <f>'[3]SB3-SU1'!$AD$56</f>
-        <v>5042362717.4544201</v>
-      </c>
-      <c r="AB27" s="27">
+        <v>1024973319.4286743</v>
+      </c>
+      <c r="AB27" s="25">
         <f>AA27*S27</f>
-        <v>113453161.14272445</v>
+        <v>115309498.43572585</v>
       </c>
     </row>
     <row r="28" spans="7:28" x14ac:dyDescent="0.3">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="46"/>
-      <c r="N28" s="46"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="56"/>
-      <c r="W28" s="68"/>
-      <c r="X28" s="69"/>
-      <c r="Y28" s="68"/>
-      <c r="Z28" s="69"/>
-      <c r="AA28" s="68"/>
-      <c r="AB28" s="69"/>
+      <c r="M28" s="37"/>
+      <c r="N28" s="37"/>
+      <c r="O28" s="37"/>
+      <c r="P28" s="37"/>
+      <c r="Q28" s="37"/>
+      <c r="R28" s="37"/>
+      <c r="S28" s="37"/>
+      <c r="T28" s="37"/>
+      <c r="U28" s="37"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="35"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="35"/>
     </row>
     <row r="29" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="55"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="55"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="55"/>
-      <c r="AB29" s="56"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="38"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
+      <c r="U29" s="38"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="36"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="36"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="36"/>
+      <c r="AB29" s="31"/>
     </row>
     <row r="30" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L30" s="16"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="17" t="s">
+      <c r="L30" s="15"/>
+      <c r="M30" s="12"/>
+      <c r="N30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="O30" s="20">
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="23" t="s">
+      <c r="O30" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S30" s="24">
+      <c r="S30" s="74">
         <f>J27*O30</f>
-        <v>7.8750000000000001E-2</v>
-      </c>
-      <c r="T30" s="14"/>
-      <c r="U30" s="15"/>
-      <c r="V30" s="56"/>
-      <c r="W30" s="27">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="T30" s="13"/>
+      <c r="U30" s="14"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="25">
         <f>'[1]SB3-SU2'!$AD$56</f>
-        <v>5360033892.5994921</v>
-      </c>
-      <c r="X30" s="27">
+        <v>785754236.3393687</v>
+      </c>
+      <c r="X30" s="25">
         <f>W30*S30</f>
-        <v>422102669.04220998</v>
-      </c>
-      <c r="Y30" s="27">
+        <v>117863135.45090532</v>
+      </c>
+      <c r="Y30" s="25">
         <f>'[2]SB3-SU2'!$AD$56</f>
-        <v>5042177561.8199587</v>
-      </c>
-      <c r="Z30" s="27">
+        <v>744726279.95327508</v>
+      </c>
+      <c r="Z30" s="25">
         <f>Y30*S30</f>
-        <v>397071482.99332178</v>
-      </c>
-      <c r="AA30" s="27">
+        <v>111708941.99299128</v>
+      </c>
+      <c r="AA30" s="25">
         <f>'[3]SB3-SU2'!$AD$56</f>
-        <v>5042381250.7063046</v>
-      </c>
-      <c r="AB30" s="27">
+        <v>1024983686.6578678</v>
+      </c>
+      <c r="AB30" s="25">
         <f>AA30*S30</f>
-        <v>397087523.4931215</v>
+        <v>153747552.9986802</v>
       </c>
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.3">
       <c r="L31" s="3"/>
-      <c r="M31" s="46"/>
-      <c r="N31" s="46"/>
-      <c r="O31" s="46"/>
-      <c r="P31" s="46"/>
-      <c r="Q31" s="46"/>
-      <c r="R31" s="46"/>
-      <c r="S31" s="46"/>
-      <c r="T31" s="46"/>
-      <c r="U31" s="46"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="68"/>
-      <c r="X31" s="69"/>
-      <c r="Y31" s="68"/>
-      <c r="Z31" s="69"/>
-      <c r="AA31" s="68"/>
-      <c r="AB31" s="69"/>
+      <c r="M31" s="37"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="37"/>
+      <c r="P31" s="37"/>
+      <c r="Q31" s="37"/>
+      <c r="R31" s="37"/>
+      <c r="S31" s="37"/>
+      <c r="T31" s="37"/>
+      <c r="U31" s="37"/>
+      <c r="V31" s="31"/>
+      <c r="W31" s="34"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="34"/>
+      <c r="Z31" s="35"/>
+      <c r="AA31" s="34"/>
+      <c r="AB31" s="35"/>
     </row>
     <row r="32" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="56"/>
-      <c r="W32" s="55"/>
-      <c r="X32" s="56"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="56"/>
-      <c r="AA32" s="55"/>
-      <c r="AB32" s="56"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
+      <c r="O32" s="38"/>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
+      <c r="U32" s="38"/>
+      <c r="V32" s="31"/>
+      <c r="W32" s="36"/>
+      <c r="X32" s="31"/>
+      <c r="Y32" s="36"/>
+      <c r="Z32" s="31"/>
+      <c r="AA32" s="36"/>
+      <c r="AB32" s="31"/>
     </row>
     <row r="33" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L33" s="16"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="17" t="s">
+      <c r="L33" s="15"/>
+      <c r="M33" s="12"/>
+      <c r="N33" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="O33" s="20">
-        <v>0.32500000000000001</v>
-      </c>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="23" t="s">
+      <c r="O33" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="S33" s="24">
+      <c r="S33" s="73">
         <f>J27*O33</f>
-        <v>4.8750000000000002E-2</v>
-      </c>
-      <c r="T33" s="14"/>
-      <c r="U33" s="15"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="27">
+        <v>0.48750000000000004</v>
+      </c>
+      <c r="T33" s="13"/>
+      <c r="U33" s="14"/>
+      <c r="V33" s="31"/>
+      <c r="W33" s="25">
         <f>'[1]SB3-SU3'!$AD$56</f>
-        <v>5360907393.4772854</v>
-      </c>
-      <c r="X33" s="27">
+        <v>785884397.39704406</v>
+      </c>
+      <c r="X33" s="25">
         <f>W33*S33</f>
-        <v>261344235.43201768</v>
-      </c>
-      <c r="Y33" s="27">
+        <v>383118643.73105901</v>
+      </c>
+      <c r="Y33" s="25">
         <f>'[2]SB3-SU3'!$AD$56</f>
-        <v>5042189547.7378788</v>
-      </c>
-      <c r="Z33" s="27">
+        <v>744733764.61448884</v>
+      </c>
+      <c r="Z33" s="25">
         <f>Y33*S33</f>
-        <v>245806740.4522216</v>
-      </c>
-      <c r="AA33" s="27">
+        <v>363057710.24956334</v>
+      </c>
+      <c r="AA33" s="25">
         <f>'[3]SB3-SU3'!$AD$56</f>
-        <v>5042391177.2253237</v>
-      </c>
-      <c r="AB33" s="27">
+        <v>1024989239.4069713</v>
+      </c>
+      <c r="AB33" s="25">
         <f>AA33*S33</f>
-        <v>245816569.88973454</v>
+        <v>499682254.21089858</v>
       </c>
     </row>
     <row r="34" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="72"/>
-      <c r="X34" s="29"/>
-      <c r="Y34" s="72"/>
-      <c r="Z34" s="29"/>
-      <c r="AA34" s="72"/>
-      <c r="AB34" s="29"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="27"/>
+      <c r="Y34" s="32"/>
+      <c r="Z34" s="27"/>
+      <c r="AA34" s="32"/>
+      <c r="AB34" s="27"/>
       <c r="AC34" s="2"/>
     </row>
     <row r="35" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -2288,24 +2291,24 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="70" t="s">
+      <c r="U35" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="71"/>
-      <c r="W35" s="73"/>
-      <c r="X35" s="28">
+      <c r="V35" s="30"/>
+      <c r="W35" s="33"/>
+      <c r="X35" s="26">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
-        <v>4884393103.3963184</v>
-      </c>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="28">
+        <v>762986340.48087168</v>
+      </c>
+      <c r="Y35" s="33"/>
+      <c r="Z35" s="26">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
-        <v>4594800888.5231524</v>
-      </c>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="28">
+        <v>723140657.61720121</v>
+      </c>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="26">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
-        <v>4594855632.8944149</v>
+        <v>995239066.10274649</v>
       </c>
       <c r="AC35" s="2"/>
     </row>
@@ -2416,8 +2419,8 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="4"/>
       <c r="S49" s="1"/>
-      <c r="T49" s="19"/>
-      <c r="U49" s="19"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
       <c r="X49" s="1"/>
@@ -2430,8 +2433,8 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="4"/>
       <c r="S50" s="1"/>
-      <c r="T50" s="19"/>
-      <c r="U50" s="19"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
       <c r="V50" s="1"/>
       <c r="W50" s="1"/>
       <c r="X50" s="1"/>
@@ -2444,8 +2447,8 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="4"/>
       <c r="S51" s="1"/>
-      <c r="T51" s="19"/>
-      <c r="U51" s="19"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
       <c r="V51" s="1"/>
       <c r="W51" s="1"/>
       <c r="X51" s="1"/>
@@ -2458,8 +2461,8 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="4"/>
       <c r="S52" s="1"/>
-      <c r="T52" s="19"/>
-      <c r="U52" s="19"/>
+      <c r="T52" s="17"/>
+      <c r="U52" s="17"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
       <c r="X52" s="1"/>
@@ -2472,8 +2475,8 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="4"/>
       <c r="S53" s="1"/>
-      <c r="T53" s="19"/>
-      <c r="U53" s="19"/>
+      <c r="T53" s="17"/>
+      <c r="U53" s="17"/>
       <c r="V53" s="1"/>
       <c r="W53" s="1"/>
       <c r="X53" s="1"/>
@@ -2486,8 +2489,8 @@
       <c r="Q54" s="4"/>
       <c r="R54" s="4"/>
       <c r="S54" s="1"/>
-      <c r="T54" s="19"/>
-      <c r="U54" s="19"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="17"/>
       <c r="V54" s="1"/>
       <c r="W54" s="1"/>
       <c r="X54" s="1"/>
@@ -2500,8 +2503,8 @@
       <c r="Q55" s="4"/>
       <c r="R55" s="4"/>
       <c r="S55" s="1"/>
-      <c r="T55" s="19"/>
-      <c r="U55" s="19"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="17"/>
       <c r="V55" s="1"/>
       <c r="W55" s="1"/>
       <c r="X55" s="1"/>
@@ -2514,8 +2517,8 @@
       <c r="Q56" s="4"/>
       <c r="R56" s="4"/>
       <c r="S56" s="1"/>
-      <c r="T56" s="19"/>
-      <c r="U56" s="19"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="17"/>
       <c r="V56" s="1"/>
       <c r="W56" s="1"/>
       <c r="X56" s="1"/>
@@ -2528,8 +2531,8 @@
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
       <c r="S57" s="1"/>
-      <c r="T57" s="19"/>
-      <c r="U57" s="19"/>
+      <c r="T57" s="17"/>
+      <c r="U57" s="17"/>
       <c r="V57" s="1"/>
       <c r="W57" s="1"/>
       <c r="X57" s="1"/>
@@ -2542,8 +2545,8 @@
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="19"/>
-      <c r="U58" s="19"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
@@ -2585,6 +2588,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B2:D5"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="M31:U32"/>
+    <mergeCell ref="Y3:Z5"/>
+    <mergeCell ref="AA3:AB5"/>
+    <mergeCell ref="H10:K17"/>
+    <mergeCell ref="L16:U17"/>
+    <mergeCell ref="M13:U14"/>
+    <mergeCell ref="M10:U11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="AA10:AB11"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
     <mergeCell ref="U35:V35"/>
     <mergeCell ref="V7:V33"/>
     <mergeCell ref="W34:W35"/>
@@ -2601,40 +2638,6 @@
     <mergeCell ref="AA22:AB23"/>
     <mergeCell ref="W25:X26"/>
     <mergeCell ref="Y25:Z26"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="B2:D5"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="M31:U32"/>
-    <mergeCell ref="Y3:Z5"/>
-    <mergeCell ref="AA3:AB5"/>
-    <mergeCell ref="H10:K17"/>
-    <mergeCell ref="L16:U17"/>
-    <mergeCell ref="M13:U14"/>
-    <mergeCell ref="M10:U11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="AA10:AB11"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="Q5:T6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/09-Excell/Zustand 3/W'keitsbaum - Z3.xlsx
+++ b/09-Excell/Zustand 3/W'keitsbaum - Z3.xlsx
@@ -618,142 +618,142 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -801,63 +801,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>662833852.5568192</v>
+            <v>657121111.05117357</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>663042463.01576078</v>
+            <v>657388000.59881794</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>663155252.73967469</v>
+            <v>657654890.1464901</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>725720495.40372837</v>
+            <v>720852183.57174861</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>725946743.34724951</v>
+            <v>721119073.11995208</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>726068438.10183001</v>
+            <v>721385962.66819298</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>785511219.86399519</v>
+            <v>784585828.54977763</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>785754236.3393687</v>
+            <v>784852718.09877813</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>785884397.39704406</v>
+            <v>785119607.64782846</v>
           </cell>
         </row>
       </sheetData>
@@ -884,63 +884,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>628600013.38911366</v>
+            <v>623110678.4202764</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>628612009.1318388</v>
+            <v>623125526.56134331</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>628618494.88771379</v>
+            <v>623140374.70242345</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>688120935.25859237</v>
+            <v>683440148.64320278</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>688133945.21109319</v>
+            <v>683454996.78453207</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>688140943.0337038</v>
+            <v>683469844.92587924</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>744712305.7583431</v>
+            <v>743772791.55233002</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>744726279.95327508</v>
+            <v>743787639.69403315</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>744733764.61448884</v>
+            <v>743802487.83576012</v>
           </cell>
         </row>
       </sheetData>
@@ -967,63 +967,63 @@
       <sheetData sheetId="0">
         <row r="56">
           <cell r="AD56">
-            <v>864995108.18066382</v>
+            <v>857942738.01866078</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="1">
         <row r="56">
           <cell r="AD56">
-            <v>865004007.62837636</v>
+            <v>857953617.00337064</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="2">
         <row r="56">
           <cell r="AD56">
-            <v>865008819.30587018</v>
+            <v>857964495.98808467</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="3">
         <row r="56">
           <cell r="AD56">
-            <v>946980704.74403632</v>
+            <v>941089693.03701127</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="4">
         <row r="56">
           <cell r="AD56">
-            <v>946990356.61749947</v>
+            <v>941100572.0217998</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="5">
         <row r="56">
           <cell r="AD56">
-            <v>946995548.18898273</v>
+            <v>941111451.0065937</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="6">
         <row r="56">
           <cell r="AD56">
-            <v>1024973319.4286743</v>
+            <v>1024287410.9254194</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="56">
           <cell r="AD56">
-            <v>1024983686.6578678</v>
+            <v>1024298289.91032</v>
           </cell>
         </row>
       </sheetData>
       <sheetData sheetId="8">
         <row r="56">
           <cell r="AD56">
-            <v>1024989239.4069713</v>
+            <v>1024309168.895228</v>
           </cell>
         </row>
       </sheetData>
@@ -1297,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N9" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16:U17"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1322,89 +1322,89 @@
   <sheetData>
     <row r="1" spans="2:28" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:28" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="50"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="34"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="51"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="53"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="39" t="s">
+      <c r="W3" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="39" t="s">
+      <c r="X3" s="50"/>
+      <c r="Y3" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="40"/>
-      <c r="AA3" s="39" t="s">
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="40"/>
+      <c r="AB3" s="50"/>
     </row>
     <row r="4" spans="2:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="53"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="37"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="41"/>
-      <c r="AB4" s="42"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="52"/>
     </row>
     <row r="5" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="64" t="s">
+      <c r="G5" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="65"/>
-      <c r="I5" s="66"/>
-      <c r="L5" s="63" t="s">
+      <c r="H5" s="60"/>
+      <c r="I5" s="61"/>
+      <c r="L5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="63"/>
-      <c r="N5" s="63"/>
-      <c r="Q5" s="39" t="s">
+      <c r="M5" s="58"/>
+      <c r="N5" s="58"/>
+      <c r="Q5" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="70"/>
-      <c r="S5" s="70"/>
-      <c r="T5" s="40"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="43"/>
-      <c r="Z5" s="44"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="44"/>
+      <c r="R5" s="65"/>
+      <c r="S5" s="65"/>
+      <c r="T5" s="50"/>
+      <c r="W5" s="53"/>
+      <c r="X5" s="54"/>
+      <c r="Y5" s="53"/>
+      <c r="Z5" s="54"/>
+      <c r="AA5" s="53"/>
+      <c r="AB5" s="54"/>
     </row>
     <row r="6" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="69"/>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="71"/>
-      <c r="S6" s="71"/>
-      <c r="T6" s="44"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
+      <c r="L6" s="58"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="66"/>
+      <c r="T6" s="54"/>
     </row>
     <row r="7" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="31"/>
+      <c r="V7" s="57"/>
       <c r="W7" s="23" t="s">
         <v>6</v>
       </c>
@@ -1425,24 +1425,24 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="42"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="31"/>
-      <c r="W8" s="34"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="34"/>
-      <c r="Z8" s="35"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="35"/>
+      <c r="V8" s="57"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="70"/>
     </row>
     <row r="9" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
       <c r="D9" s="28" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
@@ -1454,7 +1454,7 @@
       <c r="I9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="J9" s="72">
+      <c r="J9" s="29">
         <v>0.125</v>
       </c>
       <c r="K9" s="11"/>
@@ -1477,88 +1477,88 @@
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="31"/>
+      <c r="V9" s="57"/>
       <c r="W9" s="25">
         <f>'[1]SB1-SU1'!$AD$56</f>
-        <v>662833852.5568192</v>
+        <v>657121111.05117357</v>
       </c>
       <c r="X9" s="25">
         <f>W9*S9</f>
-        <v>12428134.73544036</v>
+        <v>12321020.832209503</v>
       </c>
       <c r="Y9" s="25">
         <f>'[2]SB1-SU1'!$AD$56</f>
-        <v>628600013.38911366</v>
+        <v>623110678.4202764</v>
       </c>
       <c r="Z9" s="25">
         <f>Y9*S9</f>
-        <v>11786250.251045881</v>
+        <v>11683325.220380181</v>
       </c>
       <c r="AA9" s="25">
         <f>'[3]SB1-SU1'!$AD$56</f>
-        <v>864995108.18066382</v>
+        <v>857942738.01866078</v>
       </c>
       <c r="AB9" s="25">
         <f>AA9*S9</f>
-        <v>16218658.278387446</v>
+        <v>16086426.337849889</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="37"/>
-      <c r="N10" s="37"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="37"/>
-      <c r="R10" s="37"/>
-      <c r="S10" s="37"/>
-      <c r="T10" s="37"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="36"/>
-      <c r="AB10" s="31"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="47"/>
+      <c r="P10" s="47"/>
+      <c r="Q10" s="47"/>
+      <c r="R10" s="47"/>
+      <c r="S10" s="47"/>
+      <c r="T10" s="47"/>
+      <c r="U10" s="47"/>
+      <c r="V10" s="57"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="56"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="57"/>
     </row>
     <row r="11" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
-      <c r="Q11" s="38"/>
-      <c r="R11" s="38"/>
-      <c r="S11" s="38"/>
-      <c r="T11" s="38"/>
-      <c r="U11" s="38"/>
-      <c r="V11" s="31"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="31"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="31"/>
+      <c r="M11" s="48"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="48"/>
+      <c r="P11" s="48"/>
+      <c r="Q11" s="48"/>
+      <c r="R11" s="48"/>
+      <c r="S11" s="48"/>
+      <c r="T11" s="48"/>
+      <c r="U11" s="48"/>
+      <c r="V11" s="57"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="56"/>
+      <c r="Z11" s="57"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="57"/>
     </row>
     <row r="12" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="45"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
       <c r="L12" s="15"/>
       <c r="M12" s="13"/>
       <c r="N12" s="16" t="s">
@@ -1578,86 +1578,86 @@
       </c>
       <c r="T12" s="13"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="31"/>
+      <c r="V12" s="57"/>
       <c r="W12" s="25">
         <f>'[1]SB1-SU2'!$AD$56</f>
-        <v>663042463.01576078</v>
+        <v>657388000.59881794</v>
       </c>
       <c r="X12" s="25">
         <f>W12*S12</f>
-        <v>16576061.575394019</v>
+        <v>16434700.01497045</v>
       </c>
       <c r="Y12" s="25">
         <f>'[2]SB1-SU2'!$AD$56</f>
-        <v>628612009.1318388</v>
+        <v>623125526.56134331</v>
       </c>
       <c r="Z12" s="25">
         <f>Y12*S12</f>
-        <v>15715300.228295971</v>
+        <v>15578138.164033584</v>
       </c>
       <c r="AA12" s="25">
         <f>'[3]SB1-SU2'!$AD$56</f>
-        <v>865004007.62837636</v>
+        <v>857953617.00337064</v>
       </c>
       <c r="AB12" s="25">
         <f>AA12*S12</f>
-        <v>21625100.190709412</v>
+        <v>21448840.425084267</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-      <c r="J13" s="45"/>
-      <c r="K13" s="45"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="31"/>
-      <c r="W13" s="36"/>
-      <c r="X13" s="31"/>
-      <c r="Y13" s="36"/>
-      <c r="Z13" s="31"/>
-      <c r="AA13" s="36"/>
-      <c r="AB13" s="31"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
+      <c r="Q13" s="47"/>
+      <c r="R13" s="47"/>
+      <c r="S13" s="47"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="57"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="56"/>
+      <c r="Z13" s="57"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="57"/>
     </row>
     <row r="14" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="45"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
-      <c r="Q14" s="38"/>
-      <c r="R14" s="38"/>
-      <c r="S14" s="38"/>
-      <c r="T14" s="38"/>
-      <c r="U14" s="38"/>
-      <c r="V14" s="31"/>
-      <c r="W14" s="36"/>
-      <c r="X14" s="31"/>
-      <c r="Y14" s="36"/>
-      <c r="Z14" s="31"/>
-      <c r="AA14" s="36"/>
-      <c r="AB14" s="31"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+      <c r="P14" s="48"/>
+      <c r="Q14" s="48"/>
+      <c r="R14" s="48"/>
+      <c r="S14" s="48"/>
+      <c r="T14" s="48"/>
+      <c r="U14" s="48"/>
+      <c r="V14" s="57"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="56"/>
+      <c r="Z14" s="57"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="57"/>
     </row>
     <row r="15" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="45"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
       <c r="L15" s="15"/>
       <c r="M15" s="13"/>
       <c r="N15" s="16" t="s">
@@ -1677,79 +1677,79 @@
       </c>
       <c r="T15" s="13"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="31"/>
+      <c r="V15" s="57"/>
       <c r="W15" s="25">
         <f>'[1]SB1-SU3'!$AD$56</f>
-        <v>663155252.73967469</v>
+        <v>657654890.1464901</v>
       </c>
       <c r="X15" s="25">
         <f>W15*S15</f>
-        <v>53881364.285098568</v>
+        <v>53434459.824402325</v>
       </c>
       <c r="Y15" s="25">
         <f>'[2]SB1-SU3'!$AD$56</f>
-        <v>628618494.88771379</v>
+        <v>623140374.70242345</v>
       </c>
       <c r="Z15" s="25">
         <f>Y15*S15</f>
-        <v>51075252.709626749</v>
+        <v>50630155.444571905</v>
       </c>
       <c r="AA15" s="25">
         <f>'[3]SB1-SU3'!$AD$56</f>
-        <v>865008819.30587018</v>
+        <v>857964495.98808467</v>
       </c>
       <c r="AB15" s="25">
         <f>AA15*S15</f>
-        <v>70281966.568601951</v>
+        <v>69709615.299031883</v>
       </c>
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="45"/>
-      <c r="L16" s="45"/>
-      <c r="M16" s="45"/>
-      <c r="N16" s="45"/>
-      <c r="O16" s="45"/>
-      <c r="P16" s="45"/>
-      <c r="Q16" s="45"/>
-      <c r="R16" s="45"/>
-      <c r="S16" s="45"/>
-      <c r="T16" s="45"/>
-      <c r="U16" s="45"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="34"/>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="34"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="35"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="55"/>
+      <c r="L16" s="55"/>
+      <c r="M16" s="55"/>
+      <c r="N16" s="55"/>
+      <c r="O16" s="55"/>
+      <c r="P16" s="55"/>
+      <c r="Q16" s="55"/>
+      <c r="R16" s="55"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" s="57"/>
+      <c r="W16" s="69"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="69"/>
+      <c r="Z16" s="70"/>
+      <c r="AA16" s="69"/>
+      <c r="AB16" s="70"/>
     </row>
     <row r="17" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="38"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="36"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="36"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="31"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="48"/>
+      <c r="L17" s="48"/>
+      <c r="M17" s="48"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="48"/>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="S17" s="48"/>
+      <c r="T17" s="48"/>
+      <c r="U17" s="48"/>
+      <c r="V17" s="57"/>
+      <c r="W17" s="56"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="56"/>
+      <c r="Z17" s="57"/>
+      <c r="AA17" s="56"/>
+      <c r="AB17" s="57"/>
     </row>
     <row r="18" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="3"/>
@@ -1757,7 +1757,7 @@
       <c r="I18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J18" s="72">
+      <c r="J18" s="29">
         <v>0.125</v>
       </c>
       <c r="K18" s="11"/>
@@ -1780,86 +1780,86 @@
       </c>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="31"/>
+      <c r="V18" s="57"/>
       <c r="W18" s="25">
         <f>'[1]SB2-SU1'!$AD$56</f>
-        <v>725720495.40372837</v>
+        <v>720852183.57174861</v>
       </c>
       <c r="X18" s="25">
         <f>W18*S18</f>
-        <v>13607259.288819907</v>
+        <v>13515978.441970287</v>
       </c>
       <c r="Y18" s="25">
         <f>'[2]SB2-SU1'!$AD$56</f>
-        <v>688120935.25859237</v>
+        <v>683440148.64320278</v>
       </c>
       <c r="Z18" s="25">
         <f>Y18*S18</f>
-        <v>12902267.536098607</v>
+        <v>12814502.787060052</v>
       </c>
       <c r="AA18" s="25">
         <f>'[3]SB2-SU1'!$AD$56</f>
-        <v>946980704.74403632</v>
+        <v>941089693.03701127</v>
       </c>
       <c r="AB18" s="25">
         <f>AA18*S18</f>
-        <v>17755888.213950679</v>
+        <v>17645431.74444396</v>
       </c>
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G19" s="3"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="37"/>
-      <c r="O19" s="37"/>
-      <c r="P19" s="37"/>
-      <c r="Q19" s="37"/>
-      <c r="R19" s="37"/>
-      <c r="S19" s="37"/>
-      <c r="T19" s="37"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="31"/>
-      <c r="W19" s="34"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="34"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="35"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="57"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="70"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="70"/>
     </row>
     <row r="20" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="38"/>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="31"/>
-      <c r="W20" s="36"/>
-      <c r="X20" s="31"/>
-      <c r="Y20" s="36"/>
-      <c r="Z20" s="31"/>
-      <c r="AA20" s="36"/>
-      <c r="AB20" s="31"/>
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+      <c r="P20" s="48"/>
+      <c r="Q20" s="48"/>
+      <c r="R20" s="48"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="56"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="56"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="56"/>
+      <c r="AB20" s="57"/>
     </row>
     <row r="21" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="45"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="45"/>
-      <c r="K21" s="45"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
+      <c r="K21" s="55"/>
       <c r="L21" s="15"/>
       <c r="M21" s="12"/>
       <c r="N21" s="16" t="s">
@@ -1879,86 +1879,86 @@
       </c>
       <c r="T21" s="13"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="31"/>
+      <c r="V21" s="57"/>
       <c r="W21" s="25">
         <f>'[1]SB2-SU2'!$AD$56</f>
-        <v>725946743.34724951</v>
+        <v>721119073.11995208</v>
       </c>
       <c r="X21" s="25">
         <f>W21*S21</f>
-        <v>18148668.583681237</v>
+        <v>18027976.827998802</v>
       </c>
       <c r="Y21" s="25">
         <f>'[2]SB2-SU2'!$AD$56</f>
-        <v>688133945.21109319</v>
+        <v>683454996.78453207</v>
       </c>
       <c r="Z21" s="25">
         <f>Y21*S21</f>
-        <v>17203348.630277332</v>
+        <v>17086374.919613302</v>
       </c>
       <c r="AA21" s="25">
         <f>'[3]SB2-SU2'!$AD$56</f>
-        <v>946990356.61749947</v>
+        <v>941100572.0217998</v>
       </c>
       <c r="AB21" s="25">
         <f>AA21*S21</f>
-        <v>23674758.91543749</v>
+        <v>23527514.300544996</v>
       </c>
     </row>
     <row r="22" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-      <c r="J22" s="45"/>
-      <c r="K22" s="45"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="37"/>
-      <c r="O22" s="37"/>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="37"/>
-      <c r="S22" s="37"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="37"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="35"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="35"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="57"/>
+      <c r="W22" s="69"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="69"/>
+      <c r="Z22" s="70"/>
+      <c r="AA22" s="69"/>
+      <c r="AB22" s="70"/>
     </row>
     <row r="23" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
-      <c r="J23" s="45"/>
-      <c r="K23" s="45"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="38"/>
-      <c r="R23" s="38"/>
-      <c r="S23" s="38"/>
-      <c r="T23" s="38"/>
-      <c r="U23" s="38"/>
-      <c r="V23" s="31"/>
-      <c r="W23" s="36"/>
-      <c r="X23" s="31"/>
-      <c r="Y23" s="36"/>
-      <c r="Z23" s="31"/>
-      <c r="AA23" s="36"/>
-      <c r="AB23" s="31"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="48"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="57"/>
     </row>
     <row r="24" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="45"/>
-      <c r="K24" s="45"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
       <c r="L24" s="15"/>
       <c r="M24" s="12"/>
       <c r="N24" s="16" t="s">
@@ -1978,79 +1978,79 @@
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="31"/>
+      <c r="V24" s="57"/>
       <c r="W24" s="25">
         <f>'[1]SB2-SU3'!$AD$56</f>
-        <v>726068438.10183001</v>
+        <v>721385962.66819298</v>
       </c>
       <c r="X24" s="25">
         <f>W24*S24</f>
-        <v>58993060.595773689</v>
+        <v>58612609.466790684</v>
       </c>
       <c r="Y24" s="25">
         <f>'[2]SB2-SU3'!$AD$56</f>
-        <v>688140943.0337038</v>
+        <v>683469844.92587924</v>
       </c>
       <c r="Z24" s="25">
         <f>Y24*S24</f>
-        <v>55911451.621488437</v>
+        <v>55531924.900227688</v>
       </c>
       <c r="AA24" s="25">
         <f>'[3]SB2-SU3'!$AD$56</f>
-        <v>946995548.18898273</v>
+        <v>941111451.0065937</v>
       </c>
       <c r="AB24" s="25">
         <f>AA24*S24</f>
-        <v>76943388.290354848</v>
+        <v>76465305.394285738</v>
       </c>
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G25" s="3"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="31"/>
-      <c r="W25" s="34"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="34"/>
-      <c r="Z25" s="35"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="35"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="57"/>
+      <c r="W25" s="69"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="69"/>
+      <c r="Z25" s="70"/>
+      <c r="AA25" s="69"/>
+      <c r="AB25" s="70"/>
     </row>
     <row r="26" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="38"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="31"/>
-      <c r="W26" s="36"/>
-      <c r="X26" s="31"/>
-      <c r="Y26" s="36"/>
-      <c r="Z26" s="31"/>
-      <c r="AA26" s="36"/>
-      <c r="AB26" s="31"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
+      <c r="K26" s="48"/>
+      <c r="L26" s="68"/>
+      <c r="M26" s="68"/>
+      <c r="N26" s="68"/>
+      <c r="O26" s="68"/>
+      <c r="P26" s="68"/>
+      <c r="Q26" s="68"/>
+      <c r="R26" s="68"/>
+      <c r="S26" s="68"/>
+      <c r="T26" s="68"/>
+      <c r="U26" s="68"/>
+      <c r="V26" s="57"/>
+      <c r="W26" s="56"/>
+      <c r="X26" s="57"/>
+      <c r="Y26" s="56"/>
+      <c r="Z26" s="57"/>
+      <c r="AA26" s="56"/>
+      <c r="AB26" s="57"/>
     </row>
     <row r="27" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="15"/>
@@ -2058,7 +2058,7 @@
       <c r="I27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J27" s="72">
+      <c r="J27" s="29">
         <v>0.75</v>
       </c>
       <c r="K27" s="13"/>
@@ -2081,71 +2081,71 @@
       </c>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="V27" s="31"/>
+      <c r="V27" s="57"/>
       <c r="W27" s="25">
         <f>'[1]SB3-SU1'!$AD$56</f>
-        <v>785511219.86399519</v>
+        <v>784585828.54977763</v>
       </c>
       <c r="X27" s="25">
         <f>W27*S27</f>
-        <v>88370012.234699458</v>
+        <v>88265905.711849973</v>
       </c>
       <c r="Y27" s="25">
         <f>'[2]SB3-SU1'!$AD$56</f>
-        <v>744712305.7583431</v>
+        <v>743772791.55233002</v>
       </c>
       <c r="Z27" s="25">
         <f>Y27*S27</f>
-        <v>83780134.397813588</v>
+        <v>83674439.049637124</v>
       </c>
       <c r="AA27" s="25">
         <f>'[3]SB3-SU1'!$AD$56</f>
-        <v>1024973319.4286743</v>
+        <v>1024287410.9254194</v>
       </c>
       <c r="AB27" s="25">
         <f>AA27*S27</f>
-        <v>115309498.43572585</v>
+        <v>115232333.72910967</v>
       </c>
     </row>
     <row r="28" spans="7:28" x14ac:dyDescent="0.3">
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="37"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="37"/>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="37"/>
-      <c r="S28" s="37"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="37"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="35"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="35"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="69"/>
+      <c r="X28" s="70"/>
+      <c r="Y28" s="69"/>
+      <c r="Z28" s="70"/>
+      <c r="AA28" s="69"/>
+      <c r="AB28" s="70"/>
     </row>
     <row r="29" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
-      <c r="R29" s="38"/>
-      <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="36"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="36"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="36"/>
-      <c r="AB29" s="31"/>
+      <c r="M29" s="48"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="48"/>
+      <c r="P29" s="48"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="48"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="57"/>
     </row>
     <row r="30" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="15"/>
@@ -2161,75 +2161,75 @@
       <c r="R30" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="S30" s="74">
+      <c r="S30" s="31">
         <f>J27*O30</f>
         <v>0.15000000000000002</v>
       </c>
       <c r="T30" s="13"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="31"/>
+      <c r="V30" s="57"/>
       <c r="W30" s="25">
         <f>'[1]SB3-SU2'!$AD$56</f>
-        <v>785754236.3393687</v>
+        <v>784852718.09877813</v>
       </c>
       <c r="X30" s="25">
         <f>W30*S30</f>
-        <v>117863135.45090532</v>
+        <v>117727907.71481673</v>
       </c>
       <c r="Y30" s="25">
         <f>'[2]SB3-SU2'!$AD$56</f>
-        <v>744726279.95327508</v>
+        <v>743787639.69403315</v>
       </c>
       <c r="Z30" s="25">
         <f>Y30*S30</f>
-        <v>111708941.99299128</v>
+        <v>111568145.95410499</v>
       </c>
       <c r="AA30" s="25">
         <f>'[3]SB3-SU2'!$AD$56</f>
-        <v>1024983686.6578678</v>
+        <v>1024298289.91032</v>
       </c>
       <c r="AB30" s="25">
         <f>AA30*S30</f>
-        <v>153747552.9986802</v>
+        <v>153644743.48654804</v>
       </c>
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.3">
       <c r="L31" s="3"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="37"/>
-      <c r="O31" s="37"/>
-      <c r="P31" s="37"/>
-      <c r="Q31" s="37"/>
-      <c r="R31" s="37"/>
-      <c r="S31" s="37"/>
-      <c r="T31" s="37"/>
-      <c r="U31" s="37"/>
-      <c r="V31" s="31"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="35"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="35"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="69"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="69"/>
+      <c r="Z31" s="70"/>
+      <c r="AA31" s="69"/>
+      <c r="AB31" s="70"/>
     </row>
     <row r="32" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
-      <c r="R32" s="38"/>
-      <c r="S32" s="38"/>
-      <c r="T32" s="38"/>
-      <c r="U32" s="38"/>
-      <c r="V32" s="31"/>
-      <c r="W32" s="36"/>
-      <c r="X32" s="31"/>
-      <c r="Y32" s="36"/>
-      <c r="Z32" s="31"/>
-      <c r="AA32" s="36"/>
-      <c r="AB32" s="31"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="57"/>
+      <c r="W32" s="56"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="56"/>
+      <c r="Z32" s="57"/>
+      <c r="AA32" s="56"/>
+      <c r="AB32" s="57"/>
     </row>
     <row r="33" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L33" s="15"/>
@@ -2245,44 +2245,44 @@
       <c r="R33" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="S33" s="73">
+      <c r="S33" s="30">
         <f>J27*O33</f>
         <v>0.48750000000000004</v>
       </c>
       <c r="T33" s="13"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="31"/>
+      <c r="V33" s="57"/>
       <c r="W33" s="25">
         <f>'[1]SB3-SU3'!$AD$56</f>
-        <v>785884397.39704406</v>
+        <v>785119607.64782846</v>
       </c>
       <c r="X33" s="25">
         <f>W33*S33</f>
-        <v>383118643.73105901</v>
+        <v>382745808.72831643</v>
       </c>
       <c r="Y33" s="25">
         <f>'[2]SB3-SU3'!$AD$56</f>
-        <v>744733764.61448884</v>
+        <v>743802487.83576012</v>
       </c>
       <c r="Z33" s="25">
         <f>Y33*S33</f>
-        <v>363057710.24956334</v>
+        <v>362603712.81993312</v>
       </c>
       <c r="AA33" s="25">
         <f>'[3]SB3-SU3'!$AD$56</f>
-        <v>1024989239.4069713</v>
+        <v>1024309168.895228</v>
       </c>
       <c r="AB33" s="25">
         <f>AA33*S33</f>
-        <v>499682254.21089858</v>
+        <v>499350719.8364237</v>
       </c>
     </row>
     <row r="34" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="32"/>
+      <c r="W34" s="73"/>
       <c r="X34" s="27"/>
-      <c r="Y34" s="32"/>
+      <c r="Y34" s="73"/>
       <c r="Z34" s="27"/>
-      <c r="AA34" s="32"/>
+      <c r="AA34" s="73"/>
       <c r="AB34" s="27"/>
       <c r="AC34" s="2"/>
     </row>
@@ -2291,24 +2291,24 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="29" t="s">
+      <c r="U35" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="30"/>
-      <c r="W35" s="33"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="74"/>
       <c r="X35" s="26">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
-        <v>762986340.48087168</v>
-      </c>
-      <c r="Y35" s="33"/>
+        <v>761086367.56332517</v>
+      </c>
+      <c r="Y35" s="74"/>
       <c r="Z35" s="26">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
-        <v>723140657.61720121</v>
-      </c>
-      <c r="AA35" s="33"/>
+        <v>721170719.25956202</v>
+      </c>
+      <c r="AA35" s="74"/>
       <c r="AB35" s="26">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
-        <v>995239066.10274649</v>
+        <v>993110930.55332208</v>
       </c>
       <c r="AC35" s="2"/>
     </row>
@@ -2588,6 +2588,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="V7:V33"/>
+    <mergeCell ref="W34:W35"/>
+    <mergeCell ref="Y34:Y35"/>
+    <mergeCell ref="AA34:AA35"/>
+    <mergeCell ref="W28:X29"/>
+    <mergeCell ref="Y28:Z29"/>
+    <mergeCell ref="AA28:AB29"/>
+    <mergeCell ref="W31:X32"/>
+    <mergeCell ref="Y31:Z32"/>
+    <mergeCell ref="AA31:AB32"/>
+    <mergeCell ref="W22:X23"/>
+    <mergeCell ref="Y22:Z23"/>
+    <mergeCell ref="AA22:AB23"/>
+    <mergeCell ref="W25:X26"/>
+    <mergeCell ref="Y25:Z26"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
     <mergeCell ref="B2:D5"/>
     <mergeCell ref="B8:C10"/>
     <mergeCell ref="M31:U32"/>
@@ -2604,40 +2638,6 @@
     <mergeCell ref="L5:N6"/>
     <mergeCell ref="G5:I6"/>
     <mergeCell ref="Q5:T6"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="V7:V33"/>
-    <mergeCell ref="W34:W35"/>
-    <mergeCell ref="Y34:Y35"/>
-    <mergeCell ref="AA34:AA35"/>
-    <mergeCell ref="W28:X29"/>
-    <mergeCell ref="Y28:Z29"/>
-    <mergeCell ref="AA28:AB29"/>
-    <mergeCell ref="W31:X32"/>
-    <mergeCell ref="Y31:Z32"/>
-    <mergeCell ref="AA31:AB32"/>
-    <mergeCell ref="W22:X23"/>
-    <mergeCell ref="Y22:Z23"/>
-    <mergeCell ref="AA22:AB23"/>
-    <mergeCell ref="W25:X26"/>
-    <mergeCell ref="Y25:Z26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/09-Excell/Zustand 3/W'keitsbaum - Z3.xlsx
+++ b/09-Excell/Zustand 3/W'keitsbaum - Z3.xlsx
@@ -627,50 +627,29 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -699,62 +678,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1297,7 +1297,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
@@ -1322,89 +1322,89 @@
   <sheetData>
     <row r="1" spans="2:28" s="5" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:28" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="53"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="2:28" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="35"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="37"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="56"/>
       <c r="E3" s="6"/>
-      <c r="W3" s="49" t="s">
+      <c r="W3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="49" t="s">
+      <c r="X3" s="43"/>
+      <c r="Y3" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="49" t="s">
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="AB3" s="50"/>
+      <c r="AB3" s="43"/>
     </row>
     <row r="4" spans="2:28" ht="16.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="37"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="56"/>
       <c r="E4" s="6"/>
-      <c r="W4" s="51"/>
-      <c r="X4" s="52"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="52"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="52"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="45"/>
+      <c r="Y4" s="44"/>
+      <c r="Z4" s="45"/>
+      <c r="AA4" s="44"/>
+      <c r="AB4" s="45"/>
     </row>
     <row r="5" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="40"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="6"/>
-      <c r="G5" s="59" t="s">
+      <c r="G5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="60"/>
-      <c r="I5" s="61"/>
-      <c r="L5" s="58" t="s">
+      <c r="H5" s="68"/>
+      <c r="I5" s="69"/>
+      <c r="L5" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="58"/>
-      <c r="N5" s="58"/>
-      <c r="Q5" s="49" t="s">
+      <c r="M5" s="66"/>
+      <c r="N5" s="66"/>
+      <c r="Q5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="65"/>
-      <c r="S5" s="65"/>
-      <c r="T5" s="50"/>
-      <c r="W5" s="53"/>
-      <c r="X5" s="54"/>
-      <c r="Y5" s="53"/>
-      <c r="Z5" s="54"/>
-      <c r="AA5" s="53"/>
-      <c r="AB5" s="54"/>
+      <c r="R5" s="73"/>
+      <c r="S5" s="73"/>
+      <c r="T5" s="43"/>
+      <c r="W5" s="46"/>
+      <c r="X5" s="47"/>
+      <c r="Y5" s="46"/>
+      <c r="Z5" s="47"/>
+      <c r="AA5" s="46"/>
+      <c r="AB5" s="47"/>
     </row>
     <row r="6" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="64"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="54"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="72"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="66"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="47"/>
     </row>
     <row r="7" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="V7" s="57"/>
+      <c r="V7" s="34"/>
       <c r="W7" s="23" t="s">
         <v>6</v>
       </c>
@@ -1425,24 +1425,24 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="42"/>
+      <c r="C8" s="61"/>
       <c r="I8" s="2"/>
       <c r="J8" s="7"/>
       <c r="O8" s="7"/>
-      <c r="V8" s="57"/>
-      <c r="W8" s="69"/>
-      <c r="X8" s="70"/>
-      <c r="Y8" s="69"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="70"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="37"/>
+      <c r="X8" s="38"/>
+      <c r="Y8" s="37"/>
+      <c r="Z8" s="38"/>
+      <c r="AA8" s="37"/>
+      <c r="AB8" s="38"/>
     </row>
     <row r="9" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="28" t="str">
         <f>IF(X35&lt;Z35,"Variante 1",IF(Z35&lt;AB35,"Variante 2","Variante 3"))</f>
         <v>Variante 2</v>
@@ -1477,7 +1477,7 @@
       </c>
       <c r="T9" s="11"/>
       <c r="U9" s="11"/>
-      <c r="V9" s="57"/>
+      <c r="V9" s="34"/>
       <c r="W9" s="25">
         <f>'[1]SB1-SU1'!$AD$56</f>
         <v>657121111.05117357</v>
@@ -1504,61 +1504,61 @@
       </c>
     </row>
     <row r="10" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="47"/>
-      <c r="T10" s="47"/>
-      <c r="U10" s="47"/>
-      <c r="V10" s="57"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="57"/>
-      <c r="Y10" s="56"/>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="56"/>
-      <c r="AB10" s="57"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="40"/>
+      <c r="O10" s="40"/>
+      <c r="P10" s="40"/>
+      <c r="Q10" s="40"/>
+      <c r="R10" s="40"/>
+      <c r="S10" s="40"/>
+      <c r="T10" s="40"/>
+      <c r="U10" s="40"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="39"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="39"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="39"/>
+      <c r="AB10" s="34"/>
     </row>
     <row r="11" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G11" s="3"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="48"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="57"/>
-      <c r="Y11" s="56"/>
-      <c r="Z11" s="57"/>
-      <c r="AA11" s="56"/>
-      <c r="AB11" s="57"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="39"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="39"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="39"/>
+      <c r="AB11" s="34"/>
     </row>
     <row r="12" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G12" s="3"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="48"/>
       <c r="L12" s="15"/>
       <c r="M12" s="13"/>
       <c r="N12" s="16" t="s">
@@ -1578,7 +1578,7 @@
       </c>
       <c r="T12" s="13"/>
       <c r="U12" s="14"/>
-      <c r="V12" s="57"/>
+      <c r="V12" s="34"/>
       <c r="W12" s="25">
         <f>'[1]SB1-SU2'!$AD$56</f>
         <v>657388000.59881794</v>
@@ -1606,58 +1606,58 @@
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G13" s="3"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
+      <c r="K13" s="48"/>
       <c r="L13" s="3"/>
-      <c r="M13" s="47"/>
-      <c r="N13" s="47"/>
-      <c r="O13" s="47"/>
-      <c r="P13" s="47"/>
-      <c r="Q13" s="47"/>
-      <c r="R13" s="47"/>
-      <c r="S13" s="47"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="57"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="57"/>
-      <c r="Y13" s="56"/>
-      <c r="Z13" s="57"/>
-      <c r="AA13" s="56"/>
-      <c r="AB13" s="57"/>
+      <c r="M13" s="40"/>
+      <c r="N13" s="40"/>
+      <c r="O13" s="40"/>
+      <c r="P13" s="40"/>
+      <c r="Q13" s="40"/>
+      <c r="R13" s="40"/>
+      <c r="S13" s="40"/>
+      <c r="T13" s="40"/>
+      <c r="U13" s="40"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="39"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="39"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="39"/>
+      <c r="AB13" s="34"/>
     </row>
     <row r="14" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G14" s="3"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="57"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="56"/>
-      <c r="Z14" s="57"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="57"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="39"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="39"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="39"/>
+      <c r="AB14" s="34"/>
     </row>
     <row r="15" spans="2:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G15" s="3"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
+      <c r="K15" s="48"/>
       <c r="L15" s="15"/>
       <c r="M15" s="13"/>
       <c r="N15" s="16" t="s">
@@ -1677,7 +1677,7 @@
       </c>
       <c r="T15" s="13"/>
       <c r="U15" s="14"/>
-      <c r="V15" s="57"/>
+      <c r="V15" s="34"/>
       <c r="W15" s="25">
         <f>'[1]SB1-SU3'!$AD$56</f>
         <v>657654890.1464901</v>
@@ -1705,51 +1705,51 @@
     </row>
     <row r="16" spans="2:28" x14ac:dyDescent="0.3">
       <c r="G16" s="3"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="55"/>
-      <c r="N16" s="55"/>
-      <c r="O16" s="55"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="55"/>
-      <c r="R16" s="55"/>
-      <c r="S16" s="55"/>
-      <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="57"/>
-      <c r="W16" s="69"/>
-      <c r="X16" s="70"/>
-      <c r="Y16" s="69"/>
-      <c r="Z16" s="70"/>
-      <c r="AA16" s="69"/>
-      <c r="AB16" s="70"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+      <c r="N16" s="48"/>
+      <c r="O16" s="48"/>
+      <c r="P16" s="48"/>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="S16" s="48"/>
+      <c r="T16" s="48"/>
+      <c r="U16" s="48"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="37"/>
+      <c r="X16" s="38"/>
+      <c r="Y16" s="37"/>
+      <c r="Z16" s="38"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="38"/>
     </row>
     <row r="17" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G17" s="3"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="S17" s="48"/>
-      <c r="T17" s="48"/>
-      <c r="U17" s="48"/>
-      <c r="V17" s="57"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="57"/>
-      <c r="Y17" s="56"/>
-      <c r="Z17" s="57"/>
-      <c r="AA17" s="56"/>
-      <c r="AB17" s="57"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="39"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="39"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="39"/>
+      <c r="AB17" s="34"/>
     </row>
     <row r="18" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G18" s="3"/>
@@ -1780,7 +1780,7 @@
       </c>
       <c r="T18" s="11"/>
       <c r="U18" s="11"/>
-      <c r="V18" s="57"/>
+      <c r="V18" s="34"/>
       <c r="W18" s="25">
         <f>'[1]SB2-SU1'!$AD$56</f>
         <v>720852183.57174861</v>
@@ -1808,58 +1808,58 @@
     </row>
     <row r="19" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G19" s="3"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="40"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="40"/>
       <c r="L19" s="3"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="57"/>
-      <c r="W19" s="69"/>
-      <c r="X19" s="70"/>
-      <c r="Y19" s="69"/>
-      <c r="Z19" s="70"/>
-      <c r="AA19" s="69"/>
-      <c r="AB19" s="70"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="40"/>
+      <c r="S19" s="40"/>
+      <c r="T19" s="40"/>
+      <c r="U19" s="40"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="37"/>
+      <c r="X19" s="38"/>
+      <c r="Y19" s="37"/>
+      <c r="Z19" s="38"/>
+      <c r="AA19" s="37"/>
+      <c r="AB19" s="38"/>
     </row>
     <row r="20" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G20" s="3"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
-      <c r="K20" s="55"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
+      <c r="K20" s="48"/>
       <c r="L20" s="3"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="56"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="56"/>
-      <c r="AB20" s="57"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="34"/>
+      <c r="W20" s="39"/>
+      <c r="X20" s="34"/>
+      <c r="Y20" s="39"/>
+      <c r="Z20" s="34"/>
+      <c r="AA20" s="39"/>
+      <c r="AB20" s="34"/>
     </row>
     <row r="21" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G21" s="3"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
-      <c r="K21" s="55"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
+      <c r="K21" s="48"/>
       <c r="L21" s="15"/>
       <c r="M21" s="12"/>
       <c r="N21" s="16" t="s">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="T21" s="13"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="57"/>
+      <c r="V21" s="34"/>
       <c r="W21" s="25">
         <f>'[1]SB2-SU2'!$AD$56</f>
         <v>721119073.11995208</v>
@@ -1907,58 +1907,58 @@
     </row>
     <row r="22" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G22" s="3"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="48"/>
       <c r="L22" s="3"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="57"/>
-      <c r="W22" s="69"/>
-      <c r="X22" s="70"/>
-      <c r="Y22" s="69"/>
-      <c r="Z22" s="70"/>
-      <c r="AA22" s="69"/>
-      <c r="AB22" s="70"/>
+      <c r="M22" s="40"/>
+      <c r="N22" s="40"/>
+      <c r="O22" s="40"/>
+      <c r="P22" s="40"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="40"/>
+      <c r="S22" s="40"/>
+      <c r="T22" s="40"/>
+      <c r="U22" s="40"/>
+      <c r="V22" s="34"/>
+      <c r="W22" s="37"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="37"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="37"/>
+      <c r="AB22" s="38"/>
     </row>
     <row r="23" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G23" s="3"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="55"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
       <c r="L23" s="3"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="48"/>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="57"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="57"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="57"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="57"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="34"/>
+      <c r="W23" s="39"/>
+      <c r="X23" s="34"/>
+      <c r="Y23" s="39"/>
+      <c r="Z23" s="34"/>
+      <c r="AA23" s="39"/>
+      <c r="AB23" s="34"/>
     </row>
     <row r="24" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G24" s="3"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="55"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
       <c r="L24" s="15"/>
       <c r="M24" s="12"/>
       <c r="N24" s="16" t="s">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="T24" s="13"/>
       <c r="U24" s="14"/>
-      <c r="V24" s="57"/>
+      <c r="V24" s="34"/>
       <c r="W24" s="25">
         <f>'[1]SB2-SU3'!$AD$56</f>
         <v>721385962.66819298</v>
@@ -2006,51 +2006,51 @@
     </row>
     <row r="25" spans="7:28" x14ac:dyDescent="0.3">
       <c r="G25" s="3"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="67"/>
-      <c r="U25" s="67"/>
-      <c r="V25" s="57"/>
-      <c r="W25" s="69"/>
-      <c r="X25" s="70"/>
-      <c r="Y25" s="69"/>
-      <c r="Z25" s="70"/>
-      <c r="AA25" s="69"/>
-      <c r="AB25" s="70"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="49"/>
+      <c r="M25" s="49"/>
+      <c r="N25" s="49"/>
+      <c r="O25" s="49"/>
+      <c r="P25" s="49"/>
+      <c r="Q25" s="49"/>
+      <c r="R25" s="49"/>
+      <c r="S25" s="49"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="49"/>
+      <c r="V25" s="34"/>
+      <c r="W25" s="37"/>
+      <c r="X25" s="38"/>
+      <c r="Y25" s="37"/>
+      <c r="Z25" s="38"/>
+      <c r="AA25" s="37"/>
+      <c r="AB25" s="38"/>
     </row>
     <row r="26" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G26" s="3"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
-      <c r="R26" s="68"/>
-      <c r="S26" s="68"/>
-      <c r="T26" s="68"/>
-      <c r="U26" s="68"/>
-      <c r="V26" s="57"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="57"/>
-      <c r="Y26" s="56"/>
-      <c r="Z26" s="57"/>
-      <c r="AA26" s="56"/>
-      <c r="AB26" s="57"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="50"/>
+      <c r="M26" s="50"/>
+      <c r="N26" s="50"/>
+      <c r="O26" s="50"/>
+      <c r="P26" s="50"/>
+      <c r="Q26" s="50"/>
+      <c r="R26" s="50"/>
+      <c r="S26" s="50"/>
+      <c r="T26" s="50"/>
+      <c r="U26" s="50"/>
+      <c r="V26" s="34"/>
+      <c r="W26" s="39"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="39"/>
+      <c r="Z26" s="34"/>
+      <c r="AA26" s="39"/>
+      <c r="AB26" s="34"/>
     </row>
     <row r="27" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G27" s="15"/>
@@ -2081,7 +2081,7 @@
       </c>
       <c r="T27" s="11"/>
       <c r="U27" s="11"/>
-      <c r="V27" s="57"/>
+      <c r="V27" s="34"/>
       <c r="W27" s="25">
         <f>'[1]SB3-SU1'!$AD$56</f>
         <v>784585828.54977763</v>
@@ -2111,41 +2111,41 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="L28" s="3"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="69"/>
-      <c r="X28" s="70"/>
-      <c r="Y28" s="69"/>
-      <c r="Z28" s="70"/>
-      <c r="AA28" s="69"/>
-      <c r="AB28" s="70"/>
+      <c r="M28" s="40"/>
+      <c r="N28" s="40"/>
+      <c r="O28" s="40"/>
+      <c r="P28" s="40"/>
+      <c r="Q28" s="40"/>
+      <c r="R28" s="40"/>
+      <c r="S28" s="40"/>
+      <c r="T28" s="40"/>
+      <c r="U28" s="40"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="37"/>
+      <c r="X28" s="38"/>
+      <c r="Y28" s="37"/>
+      <c r="Z28" s="38"/>
+      <c r="AA28" s="37"/>
+      <c r="AB28" s="38"/>
     </row>
     <row r="29" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L29" s="3"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="48"/>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="57"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="57"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="57"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="57"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="39"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="39"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="39"/>
+      <c r="AB29" s="34"/>
     </row>
     <row r="30" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L30" s="15"/>
@@ -2167,7 +2167,7 @@
       </c>
       <c r="T30" s="13"/>
       <c r="U30" s="14"/>
-      <c r="V30" s="57"/>
+      <c r="V30" s="34"/>
       <c r="W30" s="25">
         <f>'[1]SB3-SU2'!$AD$56</f>
         <v>784852718.09877813</v>
@@ -2195,41 +2195,41 @@
     </row>
     <row r="31" spans="7:28" x14ac:dyDescent="0.3">
       <c r="L31" s="3"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="57"/>
-      <c r="W31" s="69"/>
-      <c r="X31" s="70"/>
-      <c r="Y31" s="69"/>
-      <c r="Z31" s="70"/>
-      <c r="AA31" s="69"/>
-      <c r="AB31" s="70"/>
+      <c r="M31" s="40"/>
+      <c r="N31" s="40"/>
+      <c r="O31" s="40"/>
+      <c r="P31" s="40"/>
+      <c r="Q31" s="40"/>
+      <c r="R31" s="40"/>
+      <c r="S31" s="40"/>
+      <c r="T31" s="40"/>
+      <c r="U31" s="40"/>
+      <c r="V31" s="34"/>
+      <c r="W31" s="37"/>
+      <c r="X31" s="38"/>
+      <c r="Y31" s="37"/>
+      <c r="Z31" s="38"/>
+      <c r="AA31" s="37"/>
+      <c r="AB31" s="38"/>
     </row>
     <row r="32" spans="7:28" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L32" s="3"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="48"/>
-      <c r="P32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="57"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="57"/>
-      <c r="Y32" s="56"/>
-      <c r="Z32" s="57"/>
-      <c r="AA32" s="56"/>
-      <c r="AB32" s="57"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="34"/>
+      <c r="W32" s="39"/>
+      <c r="X32" s="34"/>
+      <c r="Y32" s="39"/>
+      <c r="Z32" s="34"/>
+      <c r="AA32" s="39"/>
+      <c r="AB32" s="34"/>
     </row>
     <row r="33" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L33" s="15"/>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="T33" s="13"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="57"/>
+      <c r="V33" s="34"/>
       <c r="W33" s="25">
         <f>'[1]SB3-SU3'!$AD$56</f>
         <v>785119607.64782846</v>
@@ -2278,11 +2278,11 @@
       </c>
     </row>
     <row r="34" spans="12:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="W34" s="73"/>
+      <c r="W34" s="35"/>
       <c r="X34" s="27"/>
-      <c r="Y34" s="73"/>
+      <c r="Y34" s="35"/>
       <c r="Z34" s="27"/>
-      <c r="AA34" s="73"/>
+      <c r="AA34" s="35"/>
       <c r="AB34" s="27"/>
       <c r="AC34" s="2"/>
     </row>
@@ -2291,21 +2291,21 @@
         <f>SUM(S9:S33)</f>
         <v>1</v>
       </c>
-      <c r="U35" s="71" t="s">
+      <c r="U35" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="V35" s="72"/>
-      <c r="W35" s="74"/>
+      <c r="V35" s="33"/>
+      <c r="W35" s="36"/>
       <c r="X35" s="26">
         <f>SUM(X9,X12,X15,X18,X21,X24,X27,X30,X33)</f>
         <v>761086367.56332517</v>
       </c>
-      <c r="Y35" s="74"/>
+      <c r="Y35" s="36"/>
       <c r="Z35" s="26">
         <f>SUM(Z9,Z12,Z15,Z18,Z21,Z24,Z27,Z30,Z33)</f>
         <v>721170719.25956202</v>
       </c>
-      <c r="AA35" s="74"/>
+      <c r="AA35" s="36"/>
       <c r="AB35" s="26">
         <f>SUM(AB9,AB12,AB15,AB18,AB21,AB24,AB27,AB30,AB33,)</f>
         <v>993110930.55332208</v>
@@ -2588,6 +2588,40 @@
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="B2:D5"/>
+    <mergeCell ref="B8:C10"/>
+    <mergeCell ref="M31:U32"/>
+    <mergeCell ref="Y3:Z5"/>
+    <mergeCell ref="AA3:AB5"/>
+    <mergeCell ref="H10:K17"/>
+    <mergeCell ref="L16:U17"/>
+    <mergeCell ref="M13:U14"/>
+    <mergeCell ref="M10:U11"/>
+    <mergeCell ref="W10:X11"/>
+    <mergeCell ref="Y10:Z11"/>
+    <mergeCell ref="AA10:AB11"/>
+    <mergeCell ref="W13:X14"/>
+    <mergeCell ref="L5:N6"/>
+    <mergeCell ref="G5:I6"/>
+    <mergeCell ref="Q5:T6"/>
+    <mergeCell ref="W3:X5"/>
+    <mergeCell ref="H19:K26"/>
+    <mergeCell ref="L25:U26"/>
+    <mergeCell ref="M22:U23"/>
+    <mergeCell ref="M19:U20"/>
+    <mergeCell ref="M28:U29"/>
+    <mergeCell ref="Y13:Z14"/>
+    <mergeCell ref="AA13:AB14"/>
+    <mergeCell ref="W8:X8"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA25:AB26"/>
+    <mergeCell ref="W16:X17"/>
+    <mergeCell ref="Y16:Z17"/>
+    <mergeCell ref="AA16:AB17"/>
+    <mergeCell ref="W19:X20"/>
+    <mergeCell ref="Y19:Z20"/>
+    <mergeCell ref="AA19:AB20"/>
     <mergeCell ref="U35:V35"/>
     <mergeCell ref="V7:V33"/>
     <mergeCell ref="W34:W35"/>
@@ -2604,40 +2638,6 @@
     <mergeCell ref="AA22:AB23"/>
     <mergeCell ref="W25:X26"/>
     <mergeCell ref="Y25:Z26"/>
-    <mergeCell ref="M28:U29"/>
-    <mergeCell ref="Y13:Z14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="W8:X8"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA25:AB26"/>
-    <mergeCell ref="W16:X17"/>
-    <mergeCell ref="Y16:Z17"/>
-    <mergeCell ref="AA16:AB17"/>
-    <mergeCell ref="W19:X20"/>
-    <mergeCell ref="Y19:Z20"/>
-    <mergeCell ref="AA19:AB20"/>
-    <mergeCell ref="W3:X5"/>
-    <mergeCell ref="H19:K26"/>
-    <mergeCell ref="L25:U26"/>
-    <mergeCell ref="M22:U23"/>
-    <mergeCell ref="M19:U20"/>
-    <mergeCell ref="B2:D5"/>
-    <mergeCell ref="B8:C10"/>
-    <mergeCell ref="M31:U32"/>
-    <mergeCell ref="Y3:Z5"/>
-    <mergeCell ref="AA3:AB5"/>
-    <mergeCell ref="H10:K17"/>
-    <mergeCell ref="L16:U17"/>
-    <mergeCell ref="M13:U14"/>
-    <mergeCell ref="M10:U11"/>
-    <mergeCell ref="W10:X11"/>
-    <mergeCell ref="Y10:Z11"/>
-    <mergeCell ref="AA10:AB11"/>
-    <mergeCell ref="W13:X14"/>
-    <mergeCell ref="L5:N6"/>
-    <mergeCell ref="G5:I6"/>
-    <mergeCell ref="Q5:T6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
